--- a/jenter-jr.xlsx
+++ b/jenter-jr.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/resultat-maler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/TdS-2017/resultater/tds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="991" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31160" windowHeight="20460" tabRatio="991" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
   <si>
     <t>Dag1</t>
   </si>
@@ -272,6 +272,39 @@
   </si>
   <si>
     <t>K2 J19-20</t>
+  </si>
+  <si>
+    <t>Johanne Lunde Ragnhildsløkken</t>
+  </si>
+  <si>
+    <t>Anette Berntsen</t>
+  </si>
+  <si>
+    <t>Siri Vestengen</t>
+  </si>
+  <si>
+    <t>Kristine Haanes Strandlie</t>
+  </si>
+  <si>
+    <t>Thea Helene Linnerud Foss</t>
+  </si>
+  <si>
+    <t>Maria Brenna</t>
+  </si>
+  <si>
+    <t>Natascha Nina Silber</t>
+  </si>
+  <si>
+    <t>Thea Snortheimsmoen</t>
+  </si>
+  <si>
+    <t>Anita Bueno Lindmoen</t>
+  </si>
+  <si>
+    <t>Mathilde Skjærdalen Myhrvold</t>
+  </si>
+  <si>
+    <t>Dorthe Ballangrud Seierstad</t>
   </si>
 </sst>
 </file>
@@ -874,12 +907,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.83203125" style="1"/>
   </cols>
@@ -965,33 +999,35 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B4" s="25"/>
       <c r="C4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J4" s="12" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
@@ -999,41 +1035,43 @@
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B5" s="25"/>
       <c r="C5" s="10" t="str">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G5" s="11" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J5" s="12" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
@@ -1041,41 +1079,43 @@
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="B6" s="25"/>
       <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G6" s="11" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J6" s="12" t="str">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K6" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1083,41 +1123,43 @@
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="B7" s="25"/>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G7" s="11" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J7" s="12" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K7" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1125,41 +1167,43 @@
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B8" s="25"/>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G8" s="11" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J8" s="12" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1167,41 +1211,43 @@
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="B9" s="25"/>
       <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G9" s="11" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J9" s="12" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K9" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1209,41 +1255,43 @@
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="B10" s="25"/>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G10" s="11" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J10" s="12" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1251,41 +1299,43 @@
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="B11" s="25"/>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G11" s="11" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J11" s="12" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K11" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1293,41 +1343,43 @@
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="B12" s="25"/>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="11" t="str">
         <f>IF(A12="","", IFERROR(VLOOKUP(C12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G12" s="11" t="str">
         <f>IF(A12="","",IFERROR(VLOOKUP(F12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J12" s="12" t="str">
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K12" s="26" t="str">
         <f t="shared" si="3"/>
@@ -1335,11 +1387,11 @@
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -5185,7 +5237,7 @@
   <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7644,7 +7696,7 @@
   <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -10105,7 +10157,7 @@
   <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -12564,12 +12616,13 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView zoomScale="174" zoomScaleNormal="174" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" style="14" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="14"/>
     <col min="4" max="5" width="8.83203125" style="15"/>
@@ -12895,7 +12948,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
+        <v>Johanne Lunde Ragnhildsløkken</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
@@ -12907,11 +12960,11 @@
       </c>
       <c r="D7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(E7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E7" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
@@ -12923,11 +12976,11 @@
       </c>
       <c r="H7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I7" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J7" s="19" t="str">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
@@ -12939,11 +12992,11 @@
       </c>
       <c r="L7" s="23" t="str">
         <f>IF(A7="","",IFERROR(VLOOKUP(M7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M7" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N7" s="27" t="str">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
@@ -12955,17 +13008,17 @@
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q7" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
+        <v>Thea Helene Linnerud Foss</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>IF('K1'!B8="", "",'K1'!B8)</f>
@@ -12977,11 +13030,11 @@
       </c>
       <c r="D8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(E8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F8" s="19" t="str">
         <f>IF('K1'!E8="", "", 'K1'!E8)</f>
@@ -12993,11 +13046,11 @@
       </c>
       <c r="H8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J8" s="19" t="str">
         <f>IF('K1'!H8="", "", 'K1'!H8)</f>
@@ -13009,11 +13062,11 @@
       </c>
       <c r="L8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(M8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M8" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N8" s="27" t="str">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
@@ -13025,17 +13078,17 @@
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q8" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
+        <v>Maria Brenna</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>IF('K1'!B9="", "",'K1'!B9)</f>
@@ -13047,11 +13100,11 @@
       </c>
       <c r="D9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(E9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F9" s="19" t="str">
         <f>IF('K1'!E9="", "", 'K1'!E9)</f>
@@ -13063,11 +13116,11 @@
       </c>
       <c r="H9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I9" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J9" s="19" t="str">
         <f>IF('K1'!H9="", "", 'K1'!H9)</f>
@@ -13079,11 +13132,11 @@
       </c>
       <c r="L9" s="23" t="str">
         <f>IF(A9="","",IFERROR(VLOOKUP(M9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M9" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N9" s="27" t="str">
         <f>IF('K1'!K9="", "", 'K1'!K9)</f>
@@ -13095,17 +13148,17 @@
       </c>
       <c r="P9" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q9" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
+        <v>Natascha Nina Silber</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>IF('K1'!B10="", "",'K1'!B10)</f>
@@ -13117,11 +13170,11 @@
       </c>
       <c r="D10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(E10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E10" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F10" s="19" t="str">
         <f>IF('K1'!E10="", "", 'K1'!E10)</f>
@@ -13133,11 +13186,11 @@
       </c>
       <c r="H10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I10" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J10" s="19" t="str">
         <f>IF('K1'!H10="", "", 'K1'!H10)</f>
@@ -13149,11 +13202,11 @@
       </c>
       <c r="L10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(M10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M10" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N10" s="27" t="str">
         <f>IF('K1'!K10="", "", 'K1'!K10)</f>
@@ -13165,17 +13218,17 @@
       </c>
       <c r="P10" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q10" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v/>
+        <v>Thea Snortheimsmoen</v>
       </c>
       <c r="B11" s="19" t="str">
         <f>IF('K1'!B11="", "",'K1'!B11)</f>
@@ -13187,11 +13240,11 @@
       </c>
       <c r="D11" s="23" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(E11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E11" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F11" s="19" t="str">
         <f>IF('K1'!E11="", "", 'K1'!E11)</f>
@@ -13203,11 +13256,11 @@
       </c>
       <c r="H11" s="23" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J11" s="19" t="str">
         <f>IF('K1'!H11="", "", 'K1'!H11)</f>
@@ -13219,11 +13272,11 @@
       </c>
       <c r="L11" s="23" t="str">
         <f>IF(A11="","",IFERROR(VLOOKUP(M11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M11" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N11" s="27" t="str">
         <f>IF('K1'!K11="", "", 'K1'!K11)</f>
@@ -13235,17 +13288,17 @@
       </c>
       <c r="P11" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q11" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v/>
+        <v>Anita Bueno Lindmoen</v>
       </c>
       <c r="B12" s="19" t="str">
         <f>IF('K1'!B12="", "",'K1'!B12)</f>
@@ -13257,11 +13310,11 @@
       </c>
       <c r="D12" s="23" t="str">
         <f>IF(A12="","",IFERROR(VLOOKUP(E12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E12" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F12" s="19" t="str">
         <f>IF('K1'!E12="", "", 'K1'!E12)</f>
@@ -13273,11 +13326,11 @@
       </c>
       <c r="H12" s="23" t="str">
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I12" s="23" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J12" s="19" t="str">
         <f>IF('K1'!H12="", "", 'K1'!H12)</f>
@@ -13289,11 +13342,11 @@
       </c>
       <c r="L12" s="23" t="str">
         <f>IF(A12="","",IFERROR(VLOOKUP(M12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M12" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N12" s="27" t="str">
         <f>IF('K1'!K12="", "", 'K1'!K12)</f>
@@ -13305,11 +13358,11 @@
       </c>
       <c r="P12" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q12" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -19755,7 +19808,7 @@
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
+        <v>Mathilde Skjærdalen Myhrvold</v>
       </c>
       <c r="B105" s="19" t="str">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
@@ -19767,11 +19820,11 @@
       </c>
       <c r="D105" s="23" t="str">
         <f>IF(A105="","",IFERROR(VLOOKUP(E105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E105" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F105" s="19" t="str">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
@@ -19783,11 +19836,11 @@
       </c>
       <c r="H105" s="23" t="str">
         <f>IF(A105="","",IFERROR(VLOOKUP(I105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I105" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J105" s="19" t="str">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
@@ -19799,11 +19852,11 @@
       </c>
       <c r="L105" s="23" t="str">
         <f>IF(A105="","",IFERROR(VLOOKUP(M105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M105" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N105" s="27" t="str">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
@@ -19815,17 +19868,17 @@
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q105" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
+        <v>Anette Berntsen</v>
       </c>
       <c r="B106" s="19" t="str">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
@@ -19837,11 +19890,11 @@
       </c>
       <c r="D106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(E106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E106" s="23" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F106" s="19" t="str">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
@@ -19853,11 +19906,11 @@
       </c>
       <c r="H106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(I106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I106" s="23" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J106" s="19" t="str">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
@@ -19869,11 +19922,11 @@
       </c>
       <c r="L106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(M106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M106" s="23" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N106" s="27" t="str">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
@@ -19885,11 +19938,11 @@
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q106" s="23" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -26685,7 +26738,7 @@
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
+        <v>Dorthe Ballangrud Seierstad</v>
       </c>
       <c r="B204" s="19" t="str">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
@@ -26697,11 +26750,11 @@
       </c>
       <c r="D204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(E204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E204" s="23" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F204" s="19" t="str">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
@@ -26713,11 +26766,11 @@
       </c>
       <c r="H204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(I204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I204" s="23" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J204" s="19" t="str">
         <f>IF('K2'!H5="", "", 'K2'!H5)</f>
@@ -26729,11 +26782,11 @@
       </c>
       <c r="L204" s="23" t="str">
         <f>IF(A204="","",IFERROR(VLOOKUP(M204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M204" s="23" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N204" s="27" t="str">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
@@ -26745,17 +26798,17 @@
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q204" s="23" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v/>
+        <v>Kristine Haanes Strandlie</v>
       </c>
       <c r="B205" s="19" t="str">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
@@ -26767,11 +26820,11 @@
       </c>
       <c r="D205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(E205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E205" s="23" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F205" s="19" t="str">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
@@ -26783,11 +26836,11 @@
       </c>
       <c r="H205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(I205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I205" s="23" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J205" s="19" t="str">
         <f>IF('K1'!H7="", "", 'K1'!H7)</f>
@@ -26799,11 +26852,11 @@
       </c>
       <c r="L205" s="23" t="str">
         <f>IF(A205="","",IFERROR(VLOOKUP(M205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M205" s="23" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N205" s="27" t="str">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
@@ -26815,17 +26868,17 @@
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q205" s="23" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
+        <v>Siri Vestengen</v>
       </c>
       <c r="B206" s="19" t="str">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
@@ -26837,11 +26890,11 @@
       </c>
       <c r="D206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(E206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E206" s="23" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="F206" s="19" t="str">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
@@ -26853,11 +26906,11 @@
       </c>
       <c r="H206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(I206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="I206" s="23" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J206" s="19" t="str">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
@@ -26869,11 +26922,11 @@
       </c>
       <c r="L206" s="23" t="str">
         <f>IF(A206="","",IFERROR(VLOOKUP(M206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M206" s="23" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N206" s="27" t="str">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
@@ -26885,11 +26938,11 @@
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q206" s="23" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
@@ -33711,13 +33764,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="37" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -33827,15 +33880,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v/>
+        <v>Johanne Lunde Ragnhildsløkken</v>
       </c>
       <c r="B6" s="41" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!Q7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -33875,15 +33928,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
-        <v/>
+        <v>Thea Helene Linnerud Foss</v>
       </c>
       <c r="B8" s="41" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!P8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!Q8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -33899,15 +33952,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
-        <v/>
+        <v>Maria Brenna</v>
       </c>
       <c r="B9" s="41" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!P9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!Q9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -33923,15 +33976,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
-        <v/>
+        <v>Natascha Nina Silber</v>
       </c>
       <c r="B10" s="41" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!P10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!Q10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -33947,15 +34000,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
-        <v/>
+        <v>Thea Snortheimsmoen</v>
       </c>
       <c r="B11" s="41" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!P11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!Q11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>
@@ -33971,15 +34024,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
-        <v/>
+        <v>Anita Bueno Lindmoen</v>
       </c>
       <c r="B12" s="41" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!P12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!Q12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="25"/>
@@ -36174,29 +36227,29 @@
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
-        <v/>
+        <v>Mathilde Skjærdalen Myhrvold</v>
       </c>
       <c r="B105" s="41" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C105" s="37" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!Q105)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v/>
+        <v>Anette Berntsen</v>
       </c>
       <c r="B106" s="41" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C106" s="37" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!Q106)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -37560,29 +37613,29 @@
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
-        <v/>
+        <v>Kristine Haanes Strandlie</v>
       </c>
       <c r="B204" s="41" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!P205)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C204" s="37" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!Q205)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v/>
+        <v>Siri Vestengen</v>
       </c>
       <c r="B205" s="41" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C205" s="37" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!Q206)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -38946,15 +38999,15 @@
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
-        <v/>
+        <v>Dorthe Ballangrud Seierstad</v>
       </c>
       <c r="B303" s="41" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C303" s="37" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!Q204)</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
@@ -38974,7 +39027,7 @@
   <sheetPr codeName="Sheet14" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="154" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -39750,13 +39803,13 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.83203125" style="1"/>
     <col min="14" max="16384" width="8.83203125" style="15"/>
@@ -39843,33 +39896,35 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" s="25"/>
       <c r="C4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G4" s="11" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J4" s="12" t="str">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K4" s="26" t="str">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
@@ -39877,41 +39932,43 @@
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="B5" s="25"/>
       <c r="C5" s="10" t="str">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="G5" s="11" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J5" s="12" t="str">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
@@ -39919,11 +39976,11 @@
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -44063,7 +44120,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -48376,13 +48433,13 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="190" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="33"/>
+    <col min="1" max="1" width="31.5" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="40" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="40"/>
@@ -48444,15 +48501,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Johanne Lunde Ragnhildsløkken</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!C4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -48468,15 +48525,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Anette Berntsen</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!C5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -48492,15 +48549,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Siri Vestengen</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!C6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -48516,15 +48573,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Kristine Haanes Strandlie</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!C7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -48540,15 +48597,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Thea Helene Linnerud Foss</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!B8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!C8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -48564,15 +48621,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Maria Brenna</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!B9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!C9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -48588,15 +48645,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Natascha Nina Silber</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!B10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!C10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -48612,15 +48669,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="36" t="str">
+        <v>Thea Snortheimsmoen</v>
+      </c>
+      <c r="B11" s="36">
         <f>IF('K1'!A11="", "",'K1'!B11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K1'!A11="", "",'K1'!C11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -48636,15 +48693,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v/>
-      </c>
-      <c r="B12" s="36" t="str">
+        <v>Anita Bueno Lindmoen</v>
+      </c>
+      <c r="B12" s="36">
         <f>IF('K1'!A12="", "",'K1'!B12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K1'!A12="", "",'K1'!C12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
@@ -50835,13 +50892,13 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -50903,15 +50960,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="25" t="str">
+        <v>Johanne Lunde Ragnhildsløkken</v>
+      </c>
+      <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!F4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -50927,15 +50984,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="25" t="str">
+        <v>Anette Berntsen</v>
+      </c>
+      <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!F5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -50951,15 +51008,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="25" t="str">
+        <v>Siri Vestengen</v>
+      </c>
+      <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!F6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -50975,15 +51032,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="25" t="str">
+        <v>Kristine Haanes Strandlie</v>
+      </c>
+      <c r="B7" s="25">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!F7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -50999,15 +51056,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="25" t="str">
+        <v>Thea Helene Linnerud Foss</v>
+      </c>
+      <c r="B8" s="25">
         <f>IF('K1'!A8="", "",'K1'!E8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!F8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="25"/>
@@ -51023,15 +51080,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="25" t="str">
+        <v>Maria Brenna</v>
+      </c>
+      <c r="B9" s="25">
         <f>IF('K1'!A9="", "",'K1'!E9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!F9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -51047,15 +51104,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="25" t="str">
+        <v>Natascha Nina Silber</v>
+      </c>
+      <c r="B10" s="25">
         <f>IF('K1'!A10="", "",'K1'!E10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!F10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -51071,15 +51128,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="25" t="str">
+        <v>Thea Snortheimsmoen</v>
+      </c>
+      <c r="B11" s="25">
         <f>IF('K1'!A11="", "",'K1'!E11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K1'!A11="", "",'K1'!F11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="25"/>
@@ -51095,15 +51152,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v/>
-      </c>
-      <c r="B12" s="25" t="str">
+        <v>Anita Bueno Lindmoen</v>
+      </c>
+      <c r="B12" s="25">
         <f>IF('K1'!A12="", "",'K1'!E12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K1'!A12="", "",'K1'!F12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="25"/>
@@ -53296,13 +53353,13 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -53364,15 +53421,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Johanne Lunde Ragnhildsløkken</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K1'!A4="", "",'K1'!I4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -53388,15 +53445,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Anette Berntsen</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!I5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -53412,15 +53469,15 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v/>
-      </c>
-      <c r="B6" s="36" t="str">
+        <v>Siri Vestengen</v>
+      </c>
+      <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" s="37" t="str">
         <f>IF('K1'!A6="", "",'K1'!I6)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -53436,15 +53493,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v/>
-      </c>
-      <c r="B7" s="36" t="str">
+        <v>Kristine Haanes Strandlie</v>
+      </c>
+      <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C7" s="37" t="str">
         <f>IF('K1'!A7="", "",'K1'!I7)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -53460,15 +53517,15 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v/>
-      </c>
-      <c r="B8" s="36" t="str">
+        <v>Thea Helene Linnerud Foss</v>
+      </c>
+      <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!I8)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="25"/>
@@ -53484,15 +53541,15 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v/>
-      </c>
-      <c r="B9" s="36" t="str">
+        <v>Maria Brenna</v>
+      </c>
+      <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!H9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C9" s="37" t="str">
         <f>IF('K1'!A9="", "",'K1'!I9)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -53508,15 +53565,15 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v/>
-      </c>
-      <c r="B10" s="36" t="str">
+        <v>Natascha Nina Silber</v>
+      </c>
+      <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!H10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!I10)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="25"/>
@@ -53532,15 +53589,15 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v/>
-      </c>
-      <c r="B11" s="36" t="str">
+        <v>Thea Snortheimsmoen</v>
+      </c>
+      <c r="B11" s="36">
         <f>IF('K1'!A11="", "",'K1'!H11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" s="37" t="str">
         <f>IF('K1'!A11="", "",'K1'!I11)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>
@@ -53556,15 +53613,15 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v/>
-      </c>
-      <c r="B12" s="36" t="str">
+        <v>Anita Bueno Lindmoen</v>
+      </c>
+      <c r="B12" s="36">
         <f>IF('K1'!A12="", "",'K1'!H12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C12" s="37" t="str">
         <f>IF('K1'!A12="", "",'K1'!I12)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="25"/>
@@ -55755,13 +55812,13 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="33"/>
+    <col min="1" max="1" width="31.5" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="40" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="40"/>
@@ -55823,15 +55880,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Mathilde Skjærdalen Myhrvold</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K2'!A4="", "",'K2'!C4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -55847,15 +55904,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Dorthe Ballangrud Seierstad</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!C5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -58214,13 +58271,13 @@
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -58282,15 +58339,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="25" t="str">
+        <v>Mathilde Skjærdalen Myhrvold</v>
+      </c>
+      <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K2'!A4="", "",'K2'!F4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -58306,15 +58363,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="25" t="str">
+        <v>Dorthe Ballangrud Seierstad</v>
+      </c>
+      <c r="B5" s="25">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!F5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>
@@ -60675,13 +60732,13 @@
   <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="31.5" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
@@ -60743,15 +60800,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v/>
-      </c>
-      <c r="B4" s="36" t="str">
+        <v>Mathilde Skjærdalen Myhrvold</v>
+      </c>
+      <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C4" s="37" t="str">
         <f>IF('K2'!A4="", "",'K2'!I4)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -60767,15 +60824,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="36" t="str">
+        <v>Dorthe Ballangrud Seierstad</v>
+      </c>
+      <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K2'!A5="", "",'K2'!I5)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>

--- a/jenter-jr.xlsx
+++ b/jenter-jr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31160" windowHeight="20460" tabRatio="991" activeTab="13"/>
+    <workbookView xWindow="18940" yWindow="460" windowWidth="14660" windowHeight="20460" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -274,37 +274,37 @@
     <t>K2 J19-20</t>
   </si>
   <si>
-    <t>Johanne Lunde Ragnhildsløkken</t>
+    <t>Berntsen, Anette</t>
   </si>
   <si>
-    <t>Anette Berntsen</t>
+    <t>Brenna, Maria</t>
   </si>
   <si>
-    <t>Siri Vestengen</t>
+    <t>Foss, Thea Helene Linnerud</t>
   </si>
   <si>
-    <t>Kristine Haanes Strandlie</t>
+    <t>Lindmoen, Anita Bueno</t>
   </si>
   <si>
-    <t>Thea Helene Linnerud Foss</t>
+    <t>Ragnhildsløkken, Johanne Lunde</t>
   </si>
   <si>
-    <t>Maria Brenna</t>
+    <t>Silber, Natascha Nina</t>
   </si>
   <si>
-    <t>Natascha Nina Silber</t>
+    <t>Snortheimsmoen, Thea</t>
   </si>
   <si>
-    <t>Thea Snortheimsmoen</t>
+    <t>Strandlie, Kristine Haanes</t>
   </si>
   <si>
-    <t>Anita Bueno Lindmoen</t>
+    <t>Vestengen, Siri</t>
   </si>
   <si>
-    <t>Mathilde Skjærdalen Myhrvold</t>
+    <t>Myhrvold, Mathilde Skjærdalen</t>
   </si>
   <si>
-    <t>Dorthe Ballangrud Seierstad</t>
+    <t>Seierstad, Dorthe Ballangrud</t>
   </si>
 </sst>
 </file>
@@ -12948,7 +12948,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Johanne Lunde Ragnhildsløkken</v>
+        <v>Berntsen, Anette</v>
       </c>
       <c r="B7" s="19" t="str">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
@@ -13018,7 +13018,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Thea Helene Linnerud Foss</v>
+        <v>Ragnhildsløkken, Johanne Lunde</v>
       </c>
       <c r="B8" s="19" t="str">
         <f>IF('K1'!B8="", "",'K1'!B8)</f>
@@ -13088,7 +13088,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v>Maria Brenna</v>
+        <v>Silber, Natascha Nina</v>
       </c>
       <c r="B9" s="19" t="str">
         <f>IF('K1'!B9="", "",'K1'!B9)</f>
@@ -13158,7 +13158,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v>Natascha Nina Silber</v>
+        <v>Snortheimsmoen, Thea</v>
       </c>
       <c r="B10" s="19" t="str">
         <f>IF('K1'!B10="", "",'K1'!B10)</f>
@@ -13228,7 +13228,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v>Thea Snortheimsmoen</v>
+        <v>Strandlie, Kristine Haanes</v>
       </c>
       <c r="B11" s="19" t="str">
         <f>IF('K1'!B11="", "",'K1'!B11)</f>
@@ -13298,7 +13298,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v>Anita Bueno Lindmoen</v>
+        <v>Vestengen, Siri</v>
       </c>
       <c r="B12" s="19" t="str">
         <f>IF('K1'!B12="", "",'K1'!B12)</f>
@@ -19808,7 +19808,7 @@
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Mathilde Skjærdalen Myhrvold</v>
+        <v>Myhrvold, Mathilde Skjærdalen</v>
       </c>
       <c r="B105" s="19" t="str">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
@@ -19878,7 +19878,7 @@
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Anette Berntsen</v>
+        <v>Brenna, Maria</v>
       </c>
       <c r="B106" s="19" t="str">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
@@ -26738,7 +26738,7 @@
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="15" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Dorthe Ballangrud Seierstad</v>
+        <v>Seierstad, Dorthe Ballangrud</v>
       </c>
       <c r="B204" s="19" t="str">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
@@ -26808,7 +26808,7 @@
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="15" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Kristine Haanes Strandlie</v>
+        <v>Lindmoen, Anita Bueno</v>
       </c>
       <c r="B205" s="19" t="str">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
@@ -26878,7 +26878,7 @@
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Siri Vestengen</v>
+        <v>Foss, Thea Helene Linnerud</v>
       </c>
       <c r="B206" s="19" t="str">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
@@ -33764,7 +33764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -33880,7 +33880,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v>Johanne Lunde Ragnhildsløkken</v>
+        <v>Berntsen, Anette</v>
       </c>
       <c r="B6" s="41" t="str">
         <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
@@ -33928,7 +33928,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
-        <v>Thea Helene Linnerud Foss</v>
+        <v>Ragnhildsløkken, Johanne Lunde</v>
       </c>
       <c r="B8" s="41" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!P8)</f>
@@ -33952,7 +33952,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
-        <v>Maria Brenna</v>
+        <v>Silber, Natascha Nina</v>
       </c>
       <c r="B9" s="41" t="str">
         <f>IF(D1D2D3!A9="", "",D1D2D3!P9)</f>
@@ -33976,7 +33976,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
-        <v>Natascha Nina Silber</v>
+        <v>Snortheimsmoen, Thea</v>
       </c>
       <c r="B10" s="41" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!P10)</f>
@@ -34000,7 +34000,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
-        <v>Thea Snortheimsmoen</v>
+        <v>Strandlie, Kristine Haanes</v>
       </c>
       <c r="B11" s="41" t="str">
         <f>IF(D1D2D3!A11="", "",D1D2D3!P11)</f>
@@ -34024,7 +34024,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
-        <v>Anita Bueno Lindmoen</v>
+        <v>Vestengen, Siri</v>
       </c>
       <c r="B12" s="41" t="str">
         <f>IF(D1D2D3!A12="", "",D1D2D3!P12)</f>
@@ -36227,7 +36227,7 @@
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
-        <v>Mathilde Skjærdalen Myhrvold</v>
+        <v>Myhrvold, Mathilde Skjærdalen</v>
       </c>
       <c r="B105" s="41" t="str">
         <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
@@ -36241,7 +36241,7 @@
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
-        <v>Anette Berntsen</v>
+        <v>Brenna, Maria</v>
       </c>
       <c r="B106" s="41" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!P106)</f>
@@ -37613,7 +37613,7 @@
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="39" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
-        <v>Kristine Haanes Strandlie</v>
+        <v>Lindmoen, Anita Bueno</v>
       </c>
       <c r="B204" s="41" t="str">
         <f>IF(D1D2D3!A205="", "",D1D2D3!P205)</f>
@@ -37627,7 +37627,7 @@
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v>Siri Vestengen</v>
+        <v>Foss, Thea Helene Linnerud</v>
       </c>
       <c r="B205" s="41" t="str">
         <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
@@ -38999,7 +38999,7 @@
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
-        <v>Dorthe Ballangrud Seierstad</v>
+        <v>Seierstad, Dorthe Ballangrud</v>
       </c>
       <c r="B303" s="41" t="str">
         <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
@@ -39803,8 +39803,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48501,7 +48501,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Johanne Lunde Ragnhildsløkken</v>
+        <v>Berntsen, Anette</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
@@ -48525,7 +48525,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Anette Berntsen</v>
+        <v>Brenna, Maria</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
@@ -48549,7 +48549,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Siri Vestengen</v>
+        <v>Foss, Thea Helene Linnerud</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
@@ -48573,7 +48573,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Kristine Haanes Strandlie</v>
+        <v>Lindmoen, Anita Bueno</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
@@ -48597,7 +48597,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Thea Helene Linnerud Foss</v>
+        <v>Ragnhildsløkken, Johanne Lunde</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!B8)</f>
@@ -48621,7 +48621,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v>Maria Brenna</v>
+        <v>Silber, Natascha Nina</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!B9)</f>
@@ -48645,7 +48645,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v>Natascha Nina Silber</v>
+        <v>Snortheimsmoen, Thea</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!B10)</f>
@@ -48669,7 +48669,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v>Thea Snortheimsmoen</v>
+        <v>Strandlie, Kristine Haanes</v>
       </c>
       <c r="B11" s="36">
         <f>IF('K1'!A11="", "",'K1'!B11)</f>
@@ -48693,7 +48693,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v>Anita Bueno Lindmoen</v>
+        <v>Vestengen, Siri</v>
       </c>
       <c r="B12" s="36">
         <f>IF('K1'!A12="", "",'K1'!B12)</f>
@@ -50960,7 +50960,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Johanne Lunde Ragnhildsløkken</v>
+        <v>Berntsen, Anette</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
@@ -50984,7 +50984,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Anette Berntsen</v>
+        <v>Brenna, Maria</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
@@ -51008,7 +51008,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Siri Vestengen</v>
+        <v>Foss, Thea Helene Linnerud</v>
       </c>
       <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
@@ -51032,7 +51032,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Kristine Haanes Strandlie</v>
+        <v>Lindmoen, Anita Bueno</v>
       </c>
       <c r="B7" s="25">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
@@ -51056,7 +51056,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Thea Helene Linnerud Foss</v>
+        <v>Ragnhildsløkken, Johanne Lunde</v>
       </c>
       <c r="B8" s="25">
         <f>IF('K1'!A8="", "",'K1'!E8)</f>
@@ -51080,7 +51080,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v>Maria Brenna</v>
+        <v>Silber, Natascha Nina</v>
       </c>
       <c r="B9" s="25">
         <f>IF('K1'!A9="", "",'K1'!E9)</f>
@@ -51104,7 +51104,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v>Natascha Nina Silber</v>
+        <v>Snortheimsmoen, Thea</v>
       </c>
       <c r="B10" s="25">
         <f>IF('K1'!A10="", "",'K1'!E10)</f>
@@ -51128,7 +51128,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v>Thea Snortheimsmoen</v>
+        <v>Strandlie, Kristine Haanes</v>
       </c>
       <c r="B11" s="25">
         <f>IF('K1'!A11="", "",'K1'!E11)</f>
@@ -51152,7 +51152,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v>Anita Bueno Lindmoen</v>
+        <v>Vestengen, Siri</v>
       </c>
       <c r="B12" s="25">
         <f>IF('K1'!A12="", "",'K1'!E12)</f>
@@ -53421,7 +53421,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
-        <v>Johanne Lunde Ragnhildsløkken</v>
+        <v>Berntsen, Anette</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
@@ -53445,7 +53445,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
-        <v>Anette Berntsen</v>
+        <v>Brenna, Maria</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
@@ -53469,7 +53469,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Siri Vestengen</v>
+        <v>Foss, Thea Helene Linnerud</v>
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!H6)</f>
@@ -53493,7 +53493,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Kristine Haanes Strandlie</v>
+        <v>Lindmoen, Anita Bueno</v>
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!H7)</f>
@@ -53517,7 +53517,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
-        <v>Thea Helene Linnerud Foss</v>
+        <v>Ragnhildsløkken, Johanne Lunde</v>
       </c>
       <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
@@ -53541,7 +53541,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v>Maria Brenna</v>
+        <v>Silber, Natascha Nina</v>
       </c>
       <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!H9)</f>
@@ -53565,7 +53565,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
-        <v>Natascha Nina Silber</v>
+        <v>Snortheimsmoen, Thea</v>
       </c>
       <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!H10)</f>
@@ -53589,7 +53589,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v>Thea Snortheimsmoen</v>
+        <v>Strandlie, Kristine Haanes</v>
       </c>
       <c r="B11" s="36">
         <f>IF('K1'!A11="", "",'K1'!H11)</f>
@@ -53613,7 +53613,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v>Anita Bueno Lindmoen</v>
+        <v>Vestengen, Siri</v>
       </c>
       <c r="B12" s="36">
         <f>IF('K1'!A12="", "",'K1'!H12)</f>
@@ -55880,7 +55880,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Mathilde Skjærdalen Myhrvold</v>
+        <v>Myhrvold, Mathilde Skjærdalen</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
@@ -55904,7 +55904,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Dorthe Ballangrud Seierstad</v>
+        <v>Seierstad, Dorthe Ballangrud</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
@@ -58339,7 +58339,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Mathilde Skjærdalen Myhrvold</v>
+        <v>Myhrvold, Mathilde Skjærdalen</v>
       </c>
       <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
@@ -58363,7 +58363,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Dorthe Ballangrud Seierstad</v>
+        <v>Seierstad, Dorthe Ballangrud</v>
       </c>
       <c r="B5" s="25">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
@@ -60800,7 +60800,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
-        <v>Mathilde Skjærdalen Myhrvold</v>
+        <v>Myhrvold, Mathilde Skjærdalen</v>
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
@@ -60824,7 +60824,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
-        <v>Dorthe Ballangrud Seierstad</v>
+        <v>Seierstad, Dorthe Ballangrud</v>
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>

--- a/jenter-jr.xlsx
+++ b/jenter-jr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="460" windowWidth="14660" windowHeight="20460" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="460" windowWidth="28740" windowHeight="19700" tabRatio="991" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,14 +1002,16 @@
       <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="25">
+        <v>5.5671296296296302E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -1029,9 +1031,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>5.5671296296296302E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1046,14 +1048,16 @@
       <c r="A5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="25">
+        <v>6.4699074074074069E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -1073,9 +1077,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>6.4699074074074069E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1090,14 +1094,16 @@
       <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="10" t="str">
+      <c r="B6" s="25">
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="10" t="str">
@@ -1117,9 +1123,9 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.1342592592592594E-3</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1134,14 +1140,16 @@
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="10" t="str">
+      <c r="B7" s="25">
+        <v>6.1805555555555563E-3</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D7" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11">
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="10" t="str">
@@ -1161,9 +1169,9 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K7" s="26" t="str">
+      <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.1805555555555563E-3</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1178,14 +1186,16 @@
       <c r="A8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="10" t="str">
+      <c r="B8" s="25">
+        <v>6.5162037037037037E-3</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D8" s="11" t="str">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11">
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>32</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="10" t="str">
@@ -1205,9 +1215,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.5162037037037037E-3</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1222,14 +1232,16 @@
       <c r="A9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="10" t="str">
+      <c r="B9" s="25">
+        <v>6.5509259259259262E-3</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D9" s="11" t="str">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11">
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>29</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="10" t="str">
@@ -1249,9 +1261,9 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K9" s="26" t="str">
+      <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.5509259259259262E-3</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1266,14 +1278,16 @@
       <c r="A10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="10" t="str">
+      <c r="B10" s="25">
+        <v>5.7638888888888887E-3</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D10" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D10" s="11">
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="10" t="str">
@@ -1293,9 +1307,9 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K10" s="26" t="str">
+      <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5.7638888888888887E-3</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1310,14 +1324,16 @@
       <c r="A11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="10" t="str">
+      <c r="B11" s="25">
+        <v>5.7407407407407416E-3</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D11" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11">
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="10" t="str">
@@ -1337,9 +1353,9 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K11" s="26" t="str">
+      <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5.7407407407407416E-3</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1354,14 +1370,16 @@
       <c r="A12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="10" t="str">
+      <c r="B12" s="25">
+        <v>6.030092592592593E-3</v>
+      </c>
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D12" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11">
         <f>IF(A12="","", IFERROR(VLOOKUP(C12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="10" t="str">
@@ -1381,9 +1399,9 @@
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K12" s="26" t="str">
+      <c r="K12" s="26">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.030092592592593E-3</v>
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="4"/>
@@ -12616,7 +12634,7 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12950,21 +12968,21 @@
         <f>IF('K1'!A4="", "",'K1'!A4)</f>
         <v>Berntsen, Anette</v>
       </c>
-      <c r="B7" s="19" t="str">
+      <c r="B7" s="19">
         <f>IF('K1'!B4="", "",'K1'!B4)</f>
-        <v/>
-      </c>
-      <c r="C7" s="20" t="str">
+        <v>5.5671296296296302E-3</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="23" t="str">
+        <v>5.5671296296296302E-3</v>
+      </c>
+      <c r="D7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(E7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E7" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="E7" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="F7" s="19" t="str">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
@@ -12998,13 +13016,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N7" s="27" t="str">
+      <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v/>
-      </c>
-      <c r="O7" s="28" t="str">
+        <v>5.5671296296296302E-3</v>
+      </c>
+      <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5.5671296296296302E-3</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13020,21 +13038,21 @@
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Ragnhildsløkken, Johanne Lunde</v>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="19">
         <f>IF('K1'!B8="", "",'K1'!B8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="20" t="str">
+        <v>6.5162037037037037E-3</v>
+      </c>
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D8" s="23" t="str">
+        <v>6.5162037037037037E-3</v>
+      </c>
+      <c r="D8" s="23">
         <f>IF(A8="","",IFERROR(VLOOKUP(E8,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E8" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="E8" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>10</v>
       </c>
       <c r="F8" s="19" t="str">
         <f>IF('K1'!E8="", "", 'K1'!E8)</f>
@@ -13068,13 +13086,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N8" s="27" t="str">
+      <c r="N8" s="27">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
-        <v/>
-      </c>
-      <c r="O8" s="28" t="str">
+        <v>6.5162037037037037E-3</v>
+      </c>
+      <c r="O8" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6.5162037037037037E-3</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13090,21 +13108,21 @@
         <f>IF('K1'!A9="", "",'K1'!A9)</f>
         <v>Silber, Natascha Nina</v>
       </c>
-      <c r="B9" s="19" t="str">
+      <c r="B9" s="19">
         <f>IF('K1'!B9="", "",'K1'!B9)</f>
-        <v/>
-      </c>
-      <c r="C9" s="20" t="str">
+        <v>6.5509259259259262E-3</v>
+      </c>
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D9" s="23" t="str">
+        <v>6.5509259259259262E-3</v>
+      </c>
+      <c r="D9" s="23">
         <f>IF(A9="","",IFERROR(VLOOKUP(E9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E9" s="23" t="str">
+        <v>24</v>
+      </c>
+      <c r="E9" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="F9" s="19" t="str">
         <f>IF('K1'!E9="", "", 'K1'!E9)</f>
@@ -13138,13 +13156,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N9" s="27" t="str">
+      <c r="N9" s="27">
         <f>IF('K1'!K9="", "", 'K1'!K9)</f>
-        <v/>
-      </c>
-      <c r="O9" s="28" t="str">
+        <v>6.5509259259259262E-3</v>
+      </c>
+      <c r="O9" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6.5509259259259262E-3</v>
       </c>
       <c r="P9" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13160,21 +13178,21 @@
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v>Snortheimsmoen, Thea</v>
       </c>
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="19">
         <f>IF('K1'!B10="", "",'K1'!B10)</f>
-        <v/>
-      </c>
-      <c r="C10" s="20" t="str">
+        <v>5.7638888888888887E-3</v>
+      </c>
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D10" s="23" t="str">
+        <v>5.7638888888888887E-3</v>
+      </c>
+      <c r="D10" s="23">
         <f>IF(A10="","",IFERROR(VLOOKUP(E10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E10" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="F10" s="19" t="str">
         <f>IF('K1'!E10="", "", 'K1'!E10)</f>
@@ -13208,13 +13226,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N10" s="27" t="str">
+      <c r="N10" s="27">
         <f>IF('K1'!K10="", "", 'K1'!K10)</f>
-        <v/>
-      </c>
-      <c r="O10" s="28" t="str">
+        <v>5.7638888888888887E-3</v>
+      </c>
+      <c r="O10" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5.7638888888888887E-3</v>
       </c>
       <c r="P10" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13230,21 +13248,21 @@
         <f>IF('K1'!A11="", "",'K1'!A11)</f>
         <v>Strandlie, Kristine Haanes</v>
       </c>
-      <c r="B11" s="19" t="str">
+      <c r="B11" s="19">
         <f>IF('K1'!B11="", "",'K1'!B11)</f>
-        <v/>
-      </c>
-      <c r="C11" s="20" t="str">
+        <v>5.7407407407407416E-3</v>
+      </c>
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="23" t="str">
+        <v>5.7407407407407416E-3</v>
+      </c>
+      <c r="D11" s="23">
         <f>IF(A11="","",IFERROR(VLOOKUP(E11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E11" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="E11" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="F11" s="19" t="str">
         <f>IF('K1'!E11="", "", 'K1'!E11)</f>
@@ -13278,13 +13296,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N11" s="27" t="str">
+      <c r="N11" s="27">
         <f>IF('K1'!K11="", "", 'K1'!K11)</f>
-        <v/>
-      </c>
-      <c r="O11" s="28" t="str">
+        <v>5.7407407407407416E-3</v>
+      </c>
+      <c r="O11" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5.7407407407407416E-3</v>
       </c>
       <c r="P11" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13300,21 +13318,21 @@
         <f>IF('K1'!A12="", "",'K1'!A12)</f>
         <v>Vestengen, Siri</v>
       </c>
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="19">
         <f>IF('K1'!B12="", "",'K1'!B12)</f>
-        <v/>
-      </c>
-      <c r="C12" s="20" t="str">
+        <v>6.030092592592593E-3</v>
+      </c>
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="23" t="str">
+        <v>6.030092592592593E-3</v>
+      </c>
+      <c r="D12" s="23">
         <f>IF(A12="","",IFERROR(VLOOKUP(E12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E12" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="E12" s="23">
         <f t="shared" si="1"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="F12" s="19" t="str">
         <f>IF('K1'!E12="", "", 'K1'!E12)</f>
@@ -13348,13 +13366,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N12" s="27" t="str">
+      <c r="N12" s="27">
         <f>IF('K1'!K12="", "", 'K1'!K12)</f>
-        <v/>
-      </c>
-      <c r="O12" s="28" t="str">
+        <v>6.030092592592593E-3</v>
+      </c>
+      <c r="O12" s="28">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6.030092592592593E-3</v>
       </c>
       <c r="P12" s="23" t="str">
         <f t="shared" si="8"/>
@@ -19810,21 +19828,21 @@
         <f>IF('K2'!A4="", "",'K2'!A4)</f>
         <v>Myhrvold, Mathilde Skjærdalen</v>
       </c>
-      <c r="B105" s="19" t="str">
+      <c r="B105" s="19">
         <f>IF('K2'!B4="", "",'K2'!B4)</f>
-        <v/>
-      </c>
-      <c r="C105" s="20" t="str">
+        <v>5.0231481481481481E-3</v>
+      </c>
+      <c r="C105" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D105" s="23" t="str">
+        <v>5.0231481481481481E-3</v>
+      </c>
+      <c r="D105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(E105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E105" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="E105" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="F105" s="19" t="str">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
@@ -19858,13 +19876,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N105" s="27" t="str">
+      <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v/>
-      </c>
-      <c r="O105" s="28" t="str">
+        <v>5.0231481481481481E-3</v>
+      </c>
+      <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>5.0231481481481481E-3</v>
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19880,21 +19898,21 @@
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Brenna, Maria</v>
       </c>
-      <c r="B106" s="19" t="str">
+      <c r="B106" s="19">
         <f>IF('K1'!B5="", "",'K1'!B5)</f>
-        <v/>
-      </c>
-      <c r="C106" s="20" t="str">
+        <v>6.4699074074074069E-3</v>
+      </c>
+      <c r="C106" s="20">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D106" s="23" t="str">
+        <v>6.4699074074074069E-3</v>
+      </c>
+      <c r="D106" s="23">
         <f>IF(A106="","",IFERROR(VLOOKUP(E106,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E106" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="E106" s="23">
         <f t="shared" si="10"/>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="F106" s="19" t="str">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
@@ -19928,13 +19946,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N106" s="27" t="str">
+      <c r="N106" s="27">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v/>
-      </c>
-      <c r="O106" s="28" t="str">
+        <v>6.4699074074074069E-3</v>
+      </c>
+      <c r="O106" s="28">
         <f t="shared" si="15"/>
-        <v/>
+        <v>6.4699074074074069E-3</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26740,21 +26758,21 @@
         <f>IF('K2'!A5="", "",'K2'!A5)</f>
         <v>Seierstad, Dorthe Ballangrud</v>
       </c>
-      <c r="B204" s="19" t="str">
+      <c r="B204" s="19">
         <f>IF('K2'!B5="", "",'K2'!B5)</f>
-        <v/>
-      </c>
-      <c r="C204" s="20" t="str">
+        <v>5.3819444444444453E-3</v>
+      </c>
+      <c r="C204" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D204" s="23" t="str">
+        <v>5.3819444444444453E-3</v>
+      </c>
+      <c r="D204" s="23">
         <f>IF(A204="","",IFERROR(VLOOKUP(E204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E204" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="E204" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="F204" s="19" t="str">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
@@ -26788,13 +26806,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N204" s="27" t="str">
+      <c r="N204" s="27">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
-        <v/>
-      </c>
-      <c r="O204" s="28" t="str">
+        <v>5.3819444444444453E-3</v>
+      </c>
+      <c r="O204" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>5.3819444444444453E-3</v>
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26810,21 +26828,21 @@
         <f>IF('K1'!A7="", "",'K1'!A7)</f>
         <v>Lindmoen, Anita Bueno</v>
       </c>
-      <c r="B205" s="19" t="str">
+      <c r="B205" s="19">
         <f>IF('K1'!B7="", "",'K1'!B7)</f>
-        <v/>
-      </c>
-      <c r="C205" s="20" t="str">
+        <v>6.1805555555555563E-3</v>
+      </c>
+      <c r="C205" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D205" s="23" t="str">
+        <v>6.1805555555555563E-3</v>
+      </c>
+      <c r="D205" s="23">
         <f>IF(A205="","",IFERROR(VLOOKUP(E205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E205" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="E205" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="F205" s="19" t="str">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
@@ -26858,13 +26876,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N205" s="27" t="str">
+      <c r="N205" s="27">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v/>
-      </c>
-      <c r="O205" s="28" t="str">
+        <v>6.1805555555555563E-3</v>
+      </c>
+      <c r="O205" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>6.1805555555555563E-3</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26880,21 +26898,21 @@
         <f>IF('K1'!A6="", "",'K1'!A6)</f>
         <v>Foss, Thea Helene Linnerud</v>
       </c>
-      <c r="B206" s="19" t="str">
+      <c r="B206" s="19">
         <f>IF('K1'!B6="", "",'K1'!B6)</f>
-        <v/>
-      </c>
-      <c r="C206" s="20" t="str">
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="C206" s="20">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="D206" s="23" t="str">
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="D206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(E206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="E206" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="E206" s="23">
         <f t="shared" si="28"/>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="F206" s="19" t="str">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
@@ -26928,13 +26946,13 @@
         <f t="shared" si="32"/>
         <v>-</v>
       </c>
-      <c r="N206" s="27" t="str">
+      <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v/>
-      </c>
-      <c r="O206" s="28" t="str">
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v/>
+        <v>6.1342592592592594E-3</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -39803,8 +39821,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39899,14 +39917,16 @@
       <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="25">
+        <v>5.0231481481481481E-3</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4="","",IFERROR(RANK(B4,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="10" t="str">
@@ -39926,9 +39946,9 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K4" s="26" t="str">
+      <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v/>
+        <v>5.0231481481481481E-3</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -39943,14 +39963,16 @@
       <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="10" t="str">
+      <c r="B5" s="25">
+        <v>5.3819444444444453E-3</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C68" si="0">IF(A5="","",IFERROR(RANK(B5,$B$4:$B$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="10" t="str">
@@ -39970,9 +39992,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v/>
+        <v>5.3819444444444453E-3</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -48505,11 +48527,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>5.5671296296296302E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!C4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -48529,11 +48551,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K1'!A5="", "",'K1'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>6.4699074074074069E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K1'!A5="", "",'K1'!C5)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -48553,11 +48575,11 @@
       </c>
       <c r="B6" s="36">
         <f>IF('K1'!A6="", "",'K1'!B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!C6)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -48577,11 +48599,11 @@
       </c>
       <c r="B7" s="36">
         <f>IF('K1'!A7="", "",'K1'!B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>6.1805555555555563E-3</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K1'!A7="", "",'K1'!C7)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -48601,11 +48623,11 @@
       </c>
       <c r="B8" s="36">
         <f>IF('K1'!A8="", "",'K1'!B8)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="37" t="str">
+        <v>6.5162037037037037E-3</v>
+      </c>
+      <c r="C8" s="37">
         <f>IF('K1'!A8="", "",'K1'!C8)</f>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -48625,11 +48647,11 @@
       </c>
       <c r="B9" s="36">
         <f>IF('K1'!A9="", "",'K1'!B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>6.5509259259259262E-3</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K1'!A9="", "",'K1'!C9)</f>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
@@ -48649,11 +48671,11 @@
       </c>
       <c r="B10" s="36">
         <f>IF('K1'!A10="", "",'K1'!B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>5.7638888888888887E-3</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K1'!A10="", "",'K1'!C10)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -48673,11 +48695,11 @@
       </c>
       <c r="B11" s="36">
         <f>IF('K1'!A11="", "",'K1'!B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>5.7407407407407416E-3</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF('K1'!A11="", "",'K1'!C11)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
@@ -48697,11 +48719,11 @@
       </c>
       <c r="B12" s="36">
         <f>IF('K1'!A12="", "",'K1'!B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="37" t="str">
+        <v>6.030092592592593E-3</v>
+      </c>
+      <c r="C12" s="37">
         <f>IF('K1'!A12="", "",'K1'!C12)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
@@ -55884,11 +55906,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>5.0231481481481481E-3</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!C4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -55908,11 +55930,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>5.3819444444444453E-3</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K2'!A5="", "",'K2'!C5)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>

--- a/jenter-jr.xlsx
+++ b/jenter-jr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="460" windowWidth="28740" windowHeight="19700" tabRatio="991" activeTab="12"/>
+    <workbookView xWindow="14900" yWindow="460" windowWidth="18700" windowHeight="20460" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>Dag1</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>Seierstad, Dorthe Ballangrud</t>
+  </si>
+  <si>
+    <t>Lunde, Johanne</t>
+  </si>
+  <si>
+    <t>DNS</t>
   </si>
 </sst>
 </file>
@@ -908,7 +914,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,14 +1019,16 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10" t="str">
+      <c r="E4" s="25">
+        <v>3.6782407407407409E-2</v>
+      </c>
+      <c r="F4" s="10">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
@@ -1033,7 +1041,7 @@
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>5.5671296296296302E-3</v>
+        <v>4.234953703703704E-2</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -1059,7 +1067,9 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>36</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" s="10" t="str">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
         <v>-</v>
@@ -1077,9 +1087,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="26" t="str">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>6.4699074074074069E-3</v>
+        <v>-</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -1105,14 +1115,16 @@
         <f>IF(A6="","", IFERROR(VLOOKUP(C6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="10" t="str">
+      <c r="E6" s="25">
+        <v>3.861111111111111E-2</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11">
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="10" t="str">
@@ -1125,7 +1137,7 @@
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>6.1342592592592594E-3</v>
+        <v>4.4745370370370366E-2</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1151,14 +1163,16 @@
         <f>IF(A7="","", IFERROR(VLOOKUP(C7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="10" t="str">
+      <c r="E7" s="25">
+        <v>3.8541666666666669E-2</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G7" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11">
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="10" t="str">
@@ -1171,7 +1185,7 @@
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>6.1805555555555563E-3</v>
+        <v>4.4722222222222226E-2</v>
       </c>
       <c r="L7" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1197,7 +1211,9 @@
         <f>IF(A8="","", IFERROR(VLOOKUP(C8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>32</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1215,9 +1231,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>6.5162037037037037E-3</v>
+        <v>-</v>
       </c>
       <c r="L8" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1243,14 +1259,16 @@
         <f>IF(A9="","", IFERROR(VLOOKUP(C9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>29</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="10" t="str">
+      <c r="E9" s="25">
+        <v>3.7731481481481484E-2</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11">
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="10" t="str">
@@ -1263,7 +1281,7 @@
       </c>
       <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v>6.5509259259259262E-3</v>
+        <v>4.4282407407407409E-2</v>
       </c>
       <c r="L9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1289,14 +1307,16 @@
         <f>IF(A10="","", IFERROR(VLOOKUP(C10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="10" t="str">
+      <c r="E10" s="25">
+        <v>4.0636574074074075E-2</v>
+      </c>
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>7</v>
+      </c>
+      <c r="G10" s="11">
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>36</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="10" t="str">
@@ -1309,7 +1329,7 @@
       </c>
       <c r="K10" s="26">
         <f t="shared" si="3"/>
-        <v>5.7638888888888887E-3</v>
+        <v>4.6400462962962963E-2</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1335,14 +1355,16 @@
         <f>IF(A11="","", IFERROR(VLOOKUP(C11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="10" t="str">
+      <c r="E11" s="25">
+        <v>3.5798611111111107E-2</v>
+      </c>
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G11" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="10" t="str">
@@ -1355,7 +1377,7 @@
       </c>
       <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v>5.7407407407407416E-3</v>
+        <v>4.1539351851851848E-2</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1381,14 +1403,16 @@
         <f>IF(A12="","", IFERROR(VLOOKUP(C12,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="10" t="str">
+      <c r="E12" s="25">
+        <v>3.9699074074074074E-2</v>
+      </c>
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G12" s="11" t="str">
+        <v>6</v>
+      </c>
+      <c r="G12" s="11">
         <f>IF(A12="","",IFERROR(VLOOKUP(F12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="10" t="str">
@@ -1401,7 +1425,7 @@
       </c>
       <c r="K12" s="26">
         <f t="shared" si="3"/>
-        <v>6.030092592592593E-3</v>
+        <v>4.5729166666666668E-2</v>
       </c>
       <c r="L12" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1413,45 +1437,51 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D13" s="11" t="str">
         <f>IF(A13="","", IFERROR(VLOOKUP(C13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="10" t="str">
+        <v>-</v>
+      </c>
+      <c r="E13" s="25">
+        <v>4.2870370370370371E-2</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G13" s="11" t="str">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11">
         <f>IF(A13="","",IFERROR(VLOOKUP(F13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="10" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="J13" s="12" t="str">
         <f>IF(A13="","",IFERROR(VLOOKUP(I13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="K13" s="26" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="L13" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -12634,7 +12664,7 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="174" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12984,21 +13014,21 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="19">
         <f>IF('K1'!E4="", "", 'K1'!E4)</f>
-        <v/>
-      </c>
-      <c r="G7" s="21" t="str">
+        <v>3.6782407407407409E-2</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H7" s="23" t="str">
+        <v>3.6782407407407409E-2</v>
+      </c>
+      <c r="H7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I7" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="I7" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="J7" s="19" t="str">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
@@ -13018,11 +13048,11 @@
       </c>
       <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>5.5671296296296302E-3</v>
+        <v>4.234953703703704E-2</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v>5.5671296296296302E-3</v>
+        <v>4.234953703703704E-2</v>
       </c>
       <c r="P7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13056,11 +13086,11 @@
       </c>
       <c r="F8" s="19" t="str">
         <f>IF('K1'!E8="", "", 'K1'!E8)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(I8,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13086,13 +13116,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="27" t="str">
         <f>IF('K1'!K8="", "", 'K1'!K8)</f>
-        <v>6.5162037037037037E-3</v>
-      </c>
-      <c r="O8" s="28">
+        <v>-</v>
+      </c>
+      <c r="O8" s="28" t="str">
         <f t="shared" si="6"/>
-        <v>6.5162037037037037E-3</v>
+        <v>-</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13124,21 +13154,21 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="19">
         <f>IF('K1'!E9="", "", 'K1'!E9)</f>
-        <v/>
-      </c>
-      <c r="G9" s="21" t="str">
+        <v>3.7731481481481484E-2</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H9" s="23" t="str">
+        <v>3.7731481481481484E-2</v>
+      </c>
+      <c r="H9" s="23">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I9" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="I9" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="J9" s="19" t="str">
         <f>IF('K1'!H9="", "", 'K1'!H9)</f>
@@ -13158,11 +13188,11 @@
       </c>
       <c r="N9" s="27">
         <f>IF('K1'!K9="", "", 'K1'!K9)</f>
-        <v>6.5509259259259262E-3</v>
+        <v>4.4282407407407409E-2</v>
       </c>
       <c r="O9" s="28">
         <f t="shared" si="6"/>
-        <v>6.5509259259259262E-3</v>
+        <v>4.4282407407407409E-2</v>
       </c>
       <c r="P9" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13194,21 +13224,21 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="19">
         <f>IF('K1'!E10="", "", 'K1'!E10)</f>
-        <v/>
-      </c>
-      <c r="G10" s="21" t="str">
+        <v>4.0636574074074075E-2</v>
+      </c>
+      <c r="G10" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H10" s="23" t="str">
+        <v>4.0636574074074075E-2</v>
+      </c>
+      <c r="H10" s="23">
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I10" s="23" t="str">
+        <v>29</v>
+      </c>
+      <c r="I10" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="J10" s="19" t="str">
         <f>IF('K1'!H10="", "", 'K1'!H10)</f>
@@ -13228,11 +13258,11 @@
       </c>
       <c r="N10" s="27">
         <f>IF('K1'!K10="", "", 'K1'!K10)</f>
-        <v>5.7638888888888887E-3</v>
+        <v>4.6400462962962963E-2</v>
       </c>
       <c r="O10" s="28">
         <f t="shared" si="6"/>
-        <v>5.7638888888888887E-3</v>
+        <v>4.6400462962962963E-2</v>
       </c>
       <c r="P10" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13264,21 +13294,21 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="19">
         <f>IF('K1'!E11="", "", 'K1'!E11)</f>
-        <v/>
-      </c>
-      <c r="G11" s="21" t="str">
+        <v>3.5798611111111107E-2</v>
+      </c>
+      <c r="G11" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H11" s="23" t="str">
+        <v>3.5798611111111107E-2</v>
+      </c>
+      <c r="H11" s="23">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I11" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="I11" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="J11" s="19" t="str">
         <f>IF('K1'!H11="", "", 'K1'!H11)</f>
@@ -13298,11 +13328,11 @@
       </c>
       <c r="N11" s="27">
         <f>IF('K1'!K11="", "", 'K1'!K11)</f>
-        <v>5.7407407407407416E-3</v>
+        <v>4.1539351851851848E-2</v>
       </c>
       <c r="O11" s="28">
         <f t="shared" si="6"/>
-        <v>5.7407407407407416E-3</v>
+        <v>4.1539351851851848E-2</v>
       </c>
       <c r="P11" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13334,21 +13364,21 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="F12" s="19">
         <f>IF('K1'!E12="", "", 'K1'!E12)</f>
-        <v/>
-      </c>
-      <c r="G12" s="21" t="str">
+        <v>3.9699074074074074E-2</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H12" s="23" t="str">
+        <v>3.9699074074074074E-2</v>
+      </c>
+      <c r="H12" s="23">
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I12" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="I12" s="23">
         <f t="shared" si="3"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="J12" s="19" t="str">
         <f>IF('K1'!H12="", "", 'K1'!H12)</f>
@@ -13368,11 +13398,11 @@
       </c>
       <c r="N12" s="27">
         <f>IF('K1'!K12="", "", 'K1'!K12)</f>
-        <v>6.030092592592593E-3</v>
+        <v>4.5729166666666668E-2</v>
       </c>
       <c r="O12" s="28">
         <f t="shared" si="6"/>
-        <v>6.030092592592593E-3</v>
+        <v>4.5729166666666668E-2</v>
       </c>
       <c r="P12" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13386,39 +13416,39 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
-        <v/>
+        <v>Lunde, Johanne</v>
       </c>
       <c r="B13" s="19" t="str">
         <f>IF('K1'!B13="", "",'K1'!B13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="D13" s="23" t="str">
         <f>IF(A13="","",IFERROR(VLOOKUP(E13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="E13" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F13" s="19" t="str">
+        <v>-</v>
+      </c>
+      <c r="F13" s="19">
         <f>IF('K1'!E13="", "", 'K1'!E13)</f>
-        <v/>
-      </c>
-      <c r="G13" s="21" t="str">
+        <v>4.2870370370370371E-2</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H13" s="23" t="str">
+        <v>4.2870370370370371E-2</v>
+      </c>
+      <c r="H13" s="23">
         <f>IF(A13="","",IFERROR(VLOOKUP(I13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
-      </c>
-      <c r="I13" s="23" t="str">
+        <v>26</v>
+      </c>
+      <c r="I13" s="23">
         <f t="shared" si="3"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="J13" s="19" t="str">
         <f>IF('K1'!H13="", "", 'K1'!H13)</f>
@@ -13430,27 +13460,27 @@
       </c>
       <c r="L13" s="23" t="str">
         <f>IF(A13="","",IFERROR(VLOOKUP(M13,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M13" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N13" s="27" t="str">
         <f>IF('K1'!K13="", "", 'K1'!K13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O13" s="28" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="P13" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="Q13" s="23" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -19844,21 +19874,21 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="F105" s="19" t="str">
+      <c r="F105" s="19">
         <f>IF('K2'!E4="", "", 'K2'!E4)</f>
-        <v/>
-      </c>
-      <c r="G105" s="21" t="str">
+        <v>3.1446759259259258E-2</v>
+      </c>
+      <c r="G105" s="21">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H105" s="23" t="str">
+        <v>3.1446759259259258E-2</v>
+      </c>
+      <c r="H105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(I105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I105" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="I105" s="23">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="J105" s="19" t="str">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
@@ -19878,11 +19908,11 @@
       </c>
       <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v>5.0231481481481481E-3</v>
+        <v>3.6469907407407409E-2</v>
       </c>
       <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v>5.0231481481481481E-3</v>
+        <v>3.6469907407407409E-2</v>
       </c>
       <c r="P105" s="23" t="str">
         <f t="shared" si="17"/>
@@ -19916,11 +19946,11 @@
       </c>
       <c r="F106" s="19" t="str">
         <f>IF('K1'!E5="", "", 'K1'!E5)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="G106" s="21" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="H106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(I106,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19946,13 +19976,13 @@
         <f t="shared" si="14"/>
         <v>-</v>
       </c>
-      <c r="N106" s="27">
+      <c r="N106" s="27" t="str">
         <f>IF('K1'!K5="", "", 'K1'!K5)</f>
-        <v>6.4699074074074069E-3</v>
-      </c>
-      <c r="O106" s="28">
+        <v>-</v>
+      </c>
+      <c r="O106" s="28" t="str">
         <f t="shared" si="15"/>
-        <v>6.4699074074074069E-3</v>
+        <v>-</v>
       </c>
       <c r="P106" s="23" t="str">
         <f t="shared" si="17"/>
@@ -26774,21 +26804,21 @@
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="F204" s="19" t="str">
+      <c r="F204" s="19">
         <f>IF('K2'!E5="", "", 'K2'!E5)</f>
-        <v/>
-      </c>
-      <c r="G204" s="21" t="str">
+        <v>3.7511574074074072E-2</v>
+      </c>
+      <c r="G204" s="21">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H204" s="23" t="str">
+        <v>3.7511574074074072E-2</v>
+      </c>
+      <c r="H204" s="23">
         <f>IF(A204="","",IFERROR(VLOOKUP(I204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I204" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="I204" s="23">
         <f t="shared" si="30"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="J204" s="19" t="str">
         <f>IF('K2'!H5="", "", 'K2'!H5)</f>
@@ -26808,11 +26838,11 @@
       </c>
       <c r="N204" s="27">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
-        <v>5.3819444444444453E-3</v>
+        <v>4.2893518518518518E-2</v>
       </c>
       <c r="O204" s="28">
         <f t="shared" si="33"/>
-        <v>5.3819444444444453E-3</v>
+        <v>4.2893518518518518E-2</v>
       </c>
       <c r="P204" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26844,21 +26874,21 @@
         <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="F205" s="19" t="str">
+      <c r="F205" s="19">
         <f>IF('K1'!E7="", "", 'K1'!E7)</f>
-        <v/>
-      </c>
-      <c r="G205" s="21" t="str">
+        <v>3.8541666666666669E-2</v>
+      </c>
+      <c r="G205" s="21">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H205" s="23" t="str">
+        <v>3.8541666666666669E-2</v>
+      </c>
+      <c r="H205" s="23">
         <f>IF(A205="","",IFERROR(VLOOKUP(I205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I205" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="I205" s="23">
         <f t="shared" si="30"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="J205" s="19" t="str">
         <f>IF('K1'!H7="", "", 'K1'!H7)</f>
@@ -26878,11 +26908,11 @@
       </c>
       <c r="N205" s="27">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v>6.1805555555555563E-3</v>
+        <v>4.4722222222222226E-2</v>
       </c>
       <c r="O205" s="28">
         <f t="shared" si="33"/>
-        <v>6.1805555555555563E-3</v>
+        <v>4.4722222222222226E-2</v>
       </c>
       <c r="P205" s="23" t="str">
         <f t="shared" si="35"/>
@@ -26914,21 +26944,21 @@
         <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="F206" s="19" t="str">
+      <c r="F206" s="19">
         <f>IF('K1'!E6="", "", 'K1'!E6)</f>
-        <v/>
-      </c>
-      <c r="G206" s="21" t="str">
+        <v>3.861111111111111E-2</v>
+      </c>
+      <c r="G206" s="21">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="H206" s="23" t="str">
+        <v>3.861111111111111E-2</v>
+      </c>
+      <c r="H206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(I206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="I206" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="I206" s="23">
         <f t="shared" si="30"/>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="J206" s="19" t="str">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
@@ -26948,11 +26978,11 @@
       </c>
       <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v>6.1342592592592594E-3</v>
+        <v>4.4745370370370366E-2</v>
       </c>
       <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v>6.1342592592592594E-3</v>
+        <v>4.4745370370370366E-2</v>
       </c>
       <c r="P206" s="23" t="str">
         <f t="shared" si="35"/>
@@ -34066,15 +34096,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!A13)</f>
-        <v/>
+        <v>Lunde, Johanne</v>
       </c>
       <c r="B13" s="41" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!P13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!Q13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="25"/>
@@ -39821,8 +39851,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39928,14 +39958,16 @@
         <f>IF(A4="","", IFERROR(VLOOKUP(C4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="10" t="str">
+      <c r="E4" s="25">
+        <v>3.1446759259259258E-2</v>
+      </c>
+      <c r="F4" s="10">
         <f>IF(A4="", "", IFERROR(RANK(E4,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="10" t="str">
@@ -39948,7 +39980,7 @@
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>5.0231481481481481E-3</v>
+        <v>3.6469907407407409E-2</v>
       </c>
       <c r="L4" s="10" t="str">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
@@ -39974,14 +40006,16 @@
         <f>IF(A5="","", IFERROR(VLOOKUP(C5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="10" t="str">
+      <c r="E5" s="25">
+        <v>3.7511574074074072E-2</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F68" si="1">IF(A5="", "", IFERROR(RANK(E5,$E$4:$E$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="G5" s="11" t="str">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11">
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="10" t="str">
@@ -39994,7 +40028,7 @@
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>5.3819444444444453E-3</v>
+        <v>4.2893518518518518E-2</v>
       </c>
       <c r="L5" s="10" t="str">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
@@ -48739,15 +48773,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
-        <v/>
+        <v>Lunde, Johanne</v>
       </c>
       <c r="B13" s="36" t="str">
         <f>IF('K1'!A13="", "",'K1'!B13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K1'!A13="", "",'K1'!C13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="36"/>
@@ -50986,11 +51020,11 @@
       </c>
       <c r="B4" s="25">
         <f>IF('K1'!A4="", "",'K1'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>3.6782407407407409E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!F4)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -51008,9 +51042,9 @@
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Brenna, Maria</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="25" t="str">
         <f>IF('K1'!A5="", "",'K1'!E5)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!F5)</f>
@@ -51034,11 +51068,11 @@
       </c>
       <c r="B6" s="25">
         <f>IF('K1'!A6="", "",'K1'!E6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
+        <v>3.861111111111111E-2</v>
+      </c>
+      <c r="C6" s="37">
         <f>IF('K1'!A6="", "",'K1'!F6)</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="25"/>
@@ -51058,11 +51092,11 @@
       </c>
       <c r="B7" s="25">
         <f>IF('K1'!A7="", "",'K1'!E7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
+        <v>3.8541666666666669E-2</v>
+      </c>
+      <c r="C7" s="37">
         <f>IF('K1'!A7="", "",'K1'!F7)</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="25"/>
@@ -51080,9 +51114,9 @@
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Ragnhildsløkken, Johanne Lunde</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="25" t="str">
         <f>IF('K1'!A8="", "",'K1'!E8)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!F8)</f>
@@ -51106,11 +51140,11 @@
       </c>
       <c r="B9" s="25">
         <f>IF('K1'!A9="", "",'K1'!E9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
+        <v>3.7731481481481484E-2</v>
+      </c>
+      <c r="C9" s="37">
         <f>IF('K1'!A9="", "",'K1'!F9)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="25"/>
@@ -51130,11 +51164,11 @@
       </c>
       <c r="B10" s="25">
         <f>IF('K1'!A10="", "",'K1'!E10)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="37" t="str">
+        <v>4.0636574074074075E-2</v>
+      </c>
+      <c r="C10" s="37">
         <f>IF('K1'!A10="", "",'K1'!F10)</f>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="25"/>
@@ -51154,11 +51188,11 @@
       </c>
       <c r="B11" s="25">
         <f>IF('K1'!A11="", "",'K1'!E11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>3.5798611111111107E-2</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF('K1'!A11="", "",'K1'!F11)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="25"/>
@@ -51178,11 +51212,11 @@
       </c>
       <c r="B12" s="25">
         <f>IF('K1'!A12="", "",'K1'!E12)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="37" t="str">
+        <v>3.9699074074074074E-2</v>
+      </c>
+      <c r="C12" s="37">
         <f>IF('K1'!A12="", "",'K1'!F12)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="25"/>
@@ -51198,15 +51232,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
-        <v/>
-      </c>
-      <c r="B13" s="25" t="str">
+        <v>Lunde, Johanne</v>
+      </c>
+      <c r="B13" s="25">
         <f>IF('K1'!A13="", "",'K1'!E13)</f>
-        <v/>
-      </c>
-      <c r="C13" s="37" t="str">
+        <v>4.2870370370370371E-2</v>
+      </c>
+      <c r="C13" s="37">
         <f>IF('K1'!A13="", "",'K1'!F13)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="25"/>
@@ -53659,15 +53693,15 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
-        <v/>
-      </c>
-      <c r="B13" s="36" t="str">
+        <v>Lunde, Johanne</v>
+      </c>
+      <c r="B13" s="36">
         <f>IF('K1'!A13="", "",'K1'!H13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K1'!A13="", "",'K1'!I13)</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="25"/>
@@ -58365,11 +58399,11 @@
       </c>
       <c r="B4" s="25">
         <f>IF('K2'!A4="", "",'K2'!E4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>3.1446759259259258E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!F4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="25"/>
@@ -58389,11 +58423,11 @@
       </c>
       <c r="B5" s="25">
         <f>IF('K2'!A5="", "",'K2'!E5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>3.7511574074074072E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K2'!A5="", "",'K2'!F5)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25"/>

--- a/jenter-jr.xlsx
+++ b/jenter-jr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="460" windowWidth="18700" windowHeight="20460" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="2280" yWindow="460" windowWidth="31320" windowHeight="20460" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="50">
   <si>
     <t>Dag1</t>
   </si>
@@ -913,8 +913,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1078,9 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="I5" s="10" t="str">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
         <v>-</v>
@@ -1318,7 +1320,9 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(F10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>36</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="I10" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1327,9 +1331,9 @@
         <f>IF(A10="","",IFERROR(VLOOKUP(I10,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>4.6400462962962963E-2</v>
+        <v>-</v>
       </c>
       <c r="L10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -1462,7 +1466,9 @@
         <f>IF(A13="","",IFERROR(VLOOKUP(F13,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>32</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="I13" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -13242,11 +13248,11 @@
       </c>
       <c r="J10" s="19" t="str">
         <f>IF('K1'!H10="", "", 'K1'!H10)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K10" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L10" s="23" t="str">
         <f>IF(A10="","",IFERROR(VLOOKUP(M10,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13256,13 +13262,13 @@
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="27" t="str">
         <f>IF('K1'!K10="", "", 'K1'!K10)</f>
-        <v>4.6400462962962963E-2</v>
-      </c>
-      <c r="O10" s="28">
+        <v>-</v>
+      </c>
+      <c r="O10" s="28" t="str">
         <f t="shared" si="6"/>
-        <v>4.6400462962962963E-2</v>
+        <v>-</v>
       </c>
       <c r="P10" s="23" t="str">
         <f t="shared" si="8"/>
@@ -13452,11 +13458,11 @@
       </c>
       <c r="J13" s="19" t="str">
         <f>IF('K1'!H13="", "", 'K1'!H13)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K13" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L13" s="23" t="str">
         <f>IF(A13="","",IFERROR(VLOOKUP(M13,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -19962,11 +19968,11 @@
       </c>
       <c r="J106" s="19" t="str">
         <f>IF('K1'!H5="", "", 'K1'!H5)</f>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="K106" s="29" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>DNS</v>
       </c>
       <c r="L106" s="23" t="str">
         <f>IF(A106="","",IFERROR(VLOOKUP(M106,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -39851,7 +39857,7 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -53503,9 +53509,9 @@
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Brenna, Maria</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="36" t="str">
         <f>IF('K1'!A5="", "",'K1'!H5)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C5" s="37" t="str">
         <f>IF('K1'!A5="", "",'K1'!I5)</f>
@@ -53623,9 +53629,9 @@
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v>Snortheimsmoen, Thea</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="36" t="str">
         <f>IF('K1'!A10="", "",'K1'!H10)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>IF('K1'!A10="", "",'K1'!I10)</f>
@@ -53695,9 +53701,9 @@
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
         <v>Lunde, Johanne</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="36" t="str">
         <f>IF('K1'!A13="", "",'K1'!H13)</f>
-        <v>0</v>
+        <v>DNS</v>
       </c>
       <c r="C13" s="37" t="str">
         <f>IF('K1'!A13="", "",'K1'!I13)</f>

--- a/jenter-jr.xlsx
+++ b/jenter-jr.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Dropbox/Documents/Torpa-IL/Synnfjell Arrangementer AS/TdS-2017/resultater/tds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="460" windowWidth="31320" windowHeight="20460" tabRatio="991"/>
+    <workbookView xWindow="2280" yWindow="460" windowWidth="31320" windowHeight="20460" tabRatio="991" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="K1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
   <si>
     <t>Dag1</t>
   </si>
@@ -312,6 +312,9 @@
   <si>
     <t>DNS</t>
   </si>
+  <si>
+    <t>DNF</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +324,7 @@
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -331,6 +334,25 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -439,9 +461,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -565,8 +591,12 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -913,8 +943,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,26 +1060,28 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="10" t="str">
+      <c r="H4" s="25">
+        <v>7.4050925925925923E-2</v>
+      </c>
+      <c r="I4" s="10">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J4" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>4.234953703703704E-2</v>
-      </c>
-      <c r="L4" s="10" t="str">
+        <v>0.11640046296296297</v>
+      </c>
+      <c r="L4" s="10">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M4" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v>-</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1128,26 +1160,28 @@
         <f>IF(A6="","",IFERROR(VLOOKUP(F6,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>45</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="10" t="str">
+      <c r="H6" s="25">
+        <v>7.8981481481481486E-2</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J6" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="J6" s="12">
         <f>IF(A6="","",IFERROR(VLOOKUP(I6,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>60</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="3"/>
-        <v>4.4745370370370366E-2</v>
-      </c>
-      <c r="L6" s="10" t="str">
+        <v>0.12372685185185185</v>
+      </c>
+      <c r="L6" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M6" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="M6" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1176,26 +1210,28 @@
         <f>IF(A7="","",IFERROR(VLOOKUP(F7,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>50</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="10" t="str">
+      <c r="H7" s="25">
+        <v>8.0497685185185186E-2</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J7" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12">
         <f>IF(A7="","",IFERROR(VLOOKUP(I7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>50</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="3"/>
-        <v>4.4722222222222226E-2</v>
-      </c>
-      <c r="L7" s="10" t="str">
+        <v>0.1252199074074074</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M7" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="M7" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1224,7 +1260,9 @@
         <f>IF(A8="","",IFERROR(VLOOKUP(F8,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>-</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
@@ -1272,26 +1310,28 @@
         <f>IF(A9="","",IFERROR(VLOOKUP(F9,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>60</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="10" t="str">
+      <c r="H9" s="25">
+        <v>8.7025462962962971E-2</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J9" s="12" t="str">
+        <v>6</v>
+      </c>
+      <c r="J9" s="12">
         <f>IF(A9="","",IFERROR(VLOOKUP(I9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>40</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="3"/>
-        <v>4.4282407407407409E-2</v>
-      </c>
-      <c r="L9" s="10" t="str">
+        <v>0.13130787037037039</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M9" s="12" t="str">
+        <v>6</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1370,26 +1410,28 @@
         <f>IF(A11="","",IFERROR(VLOOKUP(F11,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="10" t="str">
+      <c r="H11" s="25">
+        <v>7.5185185185185188E-2</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J11" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="J11" s="12">
         <f>IF(A11="","",IFERROR(VLOOKUP(I11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="3"/>
-        <v>4.1539351851851848E-2</v>
-      </c>
-      <c r="L11" s="10" t="str">
+        <v>0.11672453703703703</v>
+      </c>
+      <c r="L11" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M11" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1418,26 +1460,28 @@
         <f>IF(A12="","",IFERROR(VLOOKUP(F12,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>40</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="10" t="str">
+      <c r="H12" s="25">
+        <v>8.3888888888888888E-2</v>
+      </c>
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="J12" s="12" t="str">
+        <v>5</v>
+      </c>
+      <c r="J12" s="12">
         <f>IF(A12="","",IFERROR(VLOOKUP(I12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>45</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="3"/>
-        <v>4.5729166666666668E-2</v>
-      </c>
-      <c r="L12" s="10" t="str">
+        <v>0.12961805555555556</v>
+      </c>
+      <c r="L12" s="10">
         <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="M12" s="12" t="str">
+        <v>5</v>
+      </c>
+      <c r="M12" s="12">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -13036,37 +13080,37 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J7" s="19" t="str">
+      <c r="J7" s="19">
         <f>IF('K1'!H4="", "", 'K1'!H4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="29" t="str">
+        <v>7.4050925925925923E-2</v>
+      </c>
+      <c r="K7" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L7" s="23" t="str">
+        <v>7.4050925925925923E-2</v>
+      </c>
+      <c r="L7" s="23">
         <f>IF(A7="","",IFERROR(VLOOKUP(M7,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M7" s="23" t="str">
+        <v>80</v>
+      </c>
+      <c r="M7" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="N7" s="27">
         <f>IF('K1'!K4="", "", 'K1'!K4)</f>
-        <v>4.234953703703704E-2</v>
+        <v>0.11640046296296297</v>
       </c>
       <c r="O7" s="28">
         <f t="shared" si="6"/>
-        <v>4.234953703703704E-2</v>
-      </c>
-      <c r="P7" s="23" t="str">
+        <v>0.11640046296296297</v>
+      </c>
+      <c r="P7" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q7" s="23" t="str">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -13108,11 +13152,11 @@
       </c>
       <c r="J8" s="19" t="str">
         <f>IF('K1'!H8="", "", 'K1'!H8)</f>
-        <v/>
+        <v>DNF</v>
       </c>
       <c r="K8" s="29" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>DNF</v>
       </c>
       <c r="L8" s="23" t="str">
         <f>IF(A8="","",IFERROR(VLOOKUP(M8,Poengskala!$A$2:$B$134,2),"-"))</f>
@@ -13176,37 +13220,37 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J9" s="19" t="str">
+      <c r="J9" s="19">
         <f>IF('K1'!H9="", "", 'K1'!H9)</f>
-        <v/>
-      </c>
-      <c r="K9" s="29" t="str">
+        <v>8.7025462962962971E-2</v>
+      </c>
+      <c r="K9" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L9" s="23" t="str">
+        <v>8.7025462962962971E-2</v>
+      </c>
+      <c r="L9" s="23">
         <f>IF(A9="","",IFERROR(VLOOKUP(M9,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M9" s="23" t="str">
+        <v>32</v>
+      </c>
+      <c r="M9" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="N9" s="27">
         <f>IF('K1'!K9="", "", 'K1'!K9)</f>
-        <v>4.4282407407407409E-2</v>
+        <v>0.13130787037037039</v>
       </c>
       <c r="O9" s="28">
         <f t="shared" si="6"/>
-        <v>4.4282407407407409E-2</v>
-      </c>
-      <c r="P9" s="23" t="str">
+        <v>0.13130787037037039</v>
+      </c>
+      <c r="P9" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q9" s="23" t="str">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -13316,37 +13360,37 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J11" s="19" t="str">
+      <c r="J11" s="19">
         <f>IF('K1'!H11="", "", 'K1'!H11)</f>
-        <v/>
-      </c>
-      <c r="K11" s="29" t="str">
+        <v>7.5185185185185188E-2</v>
+      </c>
+      <c r="K11" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L11" s="23" t="str">
+        <v>7.5185185185185188E-2</v>
+      </c>
+      <c r="L11" s="23">
         <f>IF(A11="","",IFERROR(VLOOKUP(M11,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M11" s="23" t="str">
+        <v>60</v>
+      </c>
+      <c r="M11" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="N11" s="27">
         <f>IF('K1'!K11="", "", 'K1'!K11)</f>
-        <v>4.1539351851851848E-2</v>
+        <v>0.11672453703703703</v>
       </c>
       <c r="O11" s="28">
         <f t="shared" si="6"/>
-        <v>4.1539351851851848E-2</v>
-      </c>
-      <c r="P11" s="23" t="str">
+        <v>0.11672453703703703</v>
+      </c>
+      <c r="P11" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q11" s="23" t="str">
+        <v>190</v>
+      </c>
+      <c r="Q11" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -13386,37 +13430,37 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J12" s="19" t="str">
+      <c r="J12" s="19">
         <f>IF('K1'!H12="", "", 'K1'!H12)</f>
-        <v/>
-      </c>
-      <c r="K12" s="29" t="str">
+        <v>8.3888888888888888E-2</v>
+      </c>
+      <c r="K12" s="29">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L12" s="23" t="str">
+        <v>8.3888888888888888E-2</v>
+      </c>
+      <c r="L12" s="23">
         <f>IF(A12="","",IFERROR(VLOOKUP(M12,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M12" s="23" t="str">
+        <v>36</v>
+      </c>
+      <c r="M12" s="23">
         <f t="shared" si="5"/>
-        <v>-</v>
+        <v>7</v>
       </c>
       <c r="N12" s="27">
         <f>IF('K1'!K12="", "", 'K1'!K12)</f>
-        <v>4.5729166666666668E-2</v>
+        <v>0.12961805555555556</v>
       </c>
       <c r="O12" s="28">
         <f t="shared" si="6"/>
-        <v>4.5729166666666668E-2</v>
-      </c>
-      <c r="P12" s="23" t="str">
+        <v>0.12961805555555556</v>
+      </c>
+      <c r="P12" s="23">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="Q12" s="23" t="str">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="23">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -19896,37 +19940,37 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J105" s="19" t="str">
+      <c r="J105" s="19">
         <f>IF('K2'!H4="", "", 'K2'!H4)</f>
-        <v/>
-      </c>
-      <c r="K105" s="29" t="str">
+        <v>7.0555555555555552E-2</v>
+      </c>
+      <c r="K105" s="29">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L105" s="23" t="str">
+        <v>7.0555555555555552E-2</v>
+      </c>
+      <c r="L105" s="23">
         <f>IF(A105="","",IFERROR(VLOOKUP(M105,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M105" s="23" t="str">
+        <v>100</v>
+      </c>
+      <c r="M105" s="23">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="N105" s="27">
         <f>IF('K2'!K4="", "", 'K2'!K4)</f>
-        <v>3.6469907407407409E-2</v>
+        <v>0.10702546296296296</v>
       </c>
       <c r="O105" s="28">
         <f t="shared" si="15"/>
-        <v>3.6469907407407409E-2</v>
-      </c>
-      <c r="P105" s="23" t="str">
+        <v>0.10702546296296296</v>
+      </c>
+      <c r="P105" s="23">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="Q105" s="23" t="str">
+        <v>300</v>
+      </c>
+      <c r="Q105" s="23">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -26826,37 +26870,37 @@
         <f t="shared" si="30"/>
         <v>4</v>
       </c>
-      <c r="J204" s="19" t="str">
+      <c r="J204" s="19">
         <f>IF('K2'!H5="", "", 'K2'!H5)</f>
-        <v/>
-      </c>
-      <c r="K204" s="29" t="str">
+        <v>7.615740740740741E-2</v>
+      </c>
+      <c r="K204" s="29">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L204" s="23" t="str">
+        <v>7.615740740740741E-2</v>
+      </c>
+      <c r="L204" s="23">
         <f>IF(A204="","",IFERROR(VLOOKUP(M204,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M204" s="23" t="str">
+        <v>50</v>
+      </c>
+      <c r="M204" s="23">
         <f t="shared" si="32"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="N204" s="27">
         <f>IF('K2'!K5="", "", 'K2'!K5)</f>
-        <v>4.2893518518518518E-2</v>
+        <v>0.11905092592592592</v>
       </c>
       <c r="O204" s="28">
         <f t="shared" si="33"/>
-        <v>4.2893518518518518E-2</v>
-      </c>
-      <c r="P204" s="23" t="str">
+        <v>0.11905092592592592</v>
+      </c>
+      <c r="P204" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q204" s="23" t="str">
+        <v>180</v>
+      </c>
+      <c r="Q204" s="23">
         <f t="shared" si="34"/>
-        <v>-</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
@@ -26896,37 +26940,37 @@
         <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="J205" s="19" t="str">
+      <c r="J205" s="19">
         <f>IF('K1'!H7="", "", 'K1'!H7)</f>
-        <v/>
-      </c>
-      <c r="K205" s="29" t="str">
+        <v>8.0497685185185186E-2</v>
+      </c>
+      <c r="K205" s="29">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L205" s="23" t="str">
+        <v>8.0497685185185186E-2</v>
+      </c>
+      <c r="L205" s="23">
         <f>IF(A205="","",IFERROR(VLOOKUP(M205,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M205" s="23" t="str">
+        <v>40</v>
+      </c>
+      <c r="M205" s="23">
         <f t="shared" si="32"/>
-        <v>-</v>
+        <v>6</v>
       </c>
       <c r="N205" s="27">
         <f>IF('K1'!K7="", "", 'K1'!K7)</f>
-        <v>4.4722222222222226E-2</v>
+        <v>0.1252199074074074</v>
       </c>
       <c r="O205" s="28">
         <f t="shared" si="33"/>
-        <v>4.4722222222222226E-2</v>
-      </c>
-      <c r="P205" s="23" t="str">
+        <v>0.1252199074074074</v>
+      </c>
+      <c r="P205" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q205" s="23" t="str">
+        <v>112</v>
+      </c>
+      <c r="Q205" s="23">
         <f t="shared" si="34"/>
-        <v>-</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
@@ -26966,37 +27010,37 @@
         <f t="shared" si="30"/>
         <v>7</v>
       </c>
-      <c r="J206" s="19" t="str">
+      <c r="J206" s="19">
         <f>IF('K1'!H6="", "", 'K1'!H6)</f>
-        <v/>
-      </c>
-      <c r="K206" s="29" t="str">
+        <v>7.8981481481481486E-2</v>
+      </c>
+      <c r="K206" s="29">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L206" s="23" t="str">
+        <v>7.8981481481481486E-2</v>
+      </c>
+      <c r="L206" s="23">
         <f>IF(A206="","",IFERROR(VLOOKUP(M206,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M206" s="23" t="str">
+        <v>45</v>
+      </c>
+      <c r="M206" s="23">
         <f t="shared" si="32"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="N206" s="27">
         <f>IF('K1'!K6="", "", 'K1'!K6)</f>
-        <v>4.4745370370370366E-2</v>
+        <v>0.12372685185185185</v>
       </c>
       <c r="O206" s="28">
         <f t="shared" si="33"/>
-        <v>4.4745370370370366E-2</v>
-      </c>
-      <c r="P206" s="23" t="str">
+        <v>0.12372685185185185</v>
+      </c>
+      <c r="P206" s="23">
         <f t="shared" si="35"/>
-        <v>-</v>
-      </c>
-      <c r="Q206" s="23" t="str">
+        <v>117</v>
+      </c>
+      <c r="Q206" s="23">
         <f t="shared" si="34"/>
-        <v>-</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
@@ -33816,17 +33860,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M303"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="13" width="8.83203125" style="1"/>
     <col min="14" max="16384" width="8.83203125" style="15"/>
   </cols>
@@ -33883,7 +33928,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="str">
         <f>IF(D1D2D3!A5="", "",D1D2D3!A5)</f>
         <v/>
@@ -33907,7 +33952,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF(D1D2D3!A4="", "",D1D2D3!A4)</f>
         <v/>
@@ -33933,16 +33978,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
-        <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
-        <v>Berntsen, Anette</v>
-      </c>
-      <c r="B6" s="41" t="str">
-        <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
-        <v>-</v>
-      </c>
-      <c r="C6" s="37" t="str">
-        <f>IF(D1D2D3!A7="", "",D1D2D3!Q7)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
+        <v>Myhrvold, Mathilde Skjærdalen</v>
+      </c>
+      <c r="B6" s="41">
+        <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
+        <v>300</v>
+      </c>
+      <c r="C6" s="37">
+        <f>IF(D1D2D3!A105="", "",D1D2D3!Q105)</f>
+        <v>1</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -33955,7 +34000,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
         <f>IF(D1D2D3!A6="", "",D1D2D3!A6)</f>
         <v/>
@@ -33979,7 +34024,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF(D1D2D3!A8="", "",D1D2D3!A8)</f>
         <v>Ragnhildsløkken, Johanne Lunde</v>
@@ -34005,16 +34050,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
-        <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
-        <v>Silber, Natascha Nina</v>
-      </c>
-      <c r="B9" s="41" t="str">
-        <f>IF(D1D2D3!A9="", "",D1D2D3!P9)</f>
-        <v>-</v>
-      </c>
-      <c r="C9" s="37" t="str">
-        <f>IF(D1D2D3!A9="", "",D1D2D3!Q9)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A7="", "",D1D2D3!A7)</f>
+        <v>Berntsen, Anette</v>
+      </c>
+      <c r="B9" s="41">
+        <f>IF(D1D2D3!A7="", "",D1D2D3!P7)</f>
+        <v>200</v>
+      </c>
+      <c r="C9" s="37">
+        <f>IF(D1D2D3!A7="", "",D1D2D3!Q7)</f>
+        <v>2</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -34027,7 +34072,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF(D1D2D3!A10="", "",D1D2D3!A10)</f>
         <v>Snortheimsmoen, Thea</v>
@@ -34056,13 +34101,13 @@
         <f>IF(D1D2D3!A11="", "",D1D2D3!A11)</f>
         <v>Strandlie, Kristine Haanes</v>
       </c>
-      <c r="B11" s="41" t="str">
+      <c r="B11" s="41">
         <f>IF(D1D2D3!A11="", "",D1D2D3!P11)</f>
-        <v>-</v>
-      </c>
-      <c r="C11" s="37" t="str">
+        <v>190</v>
+      </c>
+      <c r="C11" s="37">
         <f>IF(D1D2D3!A11="", "",D1D2D3!Q11)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>
@@ -34077,16 +34122,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
-        <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
-        <v>Vestengen, Siri</v>
-      </c>
-      <c r="B12" s="41" t="str">
-        <f>IF(D1D2D3!A12="", "",D1D2D3!P12)</f>
-        <v>-</v>
-      </c>
-      <c r="C12" s="37" t="str">
-        <f>IF(D1D2D3!A12="", "",D1D2D3!Q12)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
+        <v>Seierstad, Dorthe Ballangrud</v>
+      </c>
+      <c r="B12" s="41">
+        <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
+        <v>180</v>
+      </c>
+      <c r="C12" s="37">
+        <f>IF(D1D2D3!A204="", "",D1D2D3!Q204)</f>
+        <v>4</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="25"/>
@@ -34099,7 +34144,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF(D1D2D3!A13="", "",D1D2D3!A13)</f>
         <v>Lunde, Johanne</v>
@@ -34123,7 +34168,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF(D1D2D3!A14="", "",D1D2D3!A14)</f>
         <v/>
@@ -34147,7 +34192,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF(D1D2D3!A15="", "",D1D2D3!A15)</f>
         <v/>
@@ -34171,7 +34216,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF(D1D2D3!A16="", "",D1D2D3!A16)</f>
         <v/>
@@ -34195,7 +34240,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF(D1D2D3!A17="", "",D1D2D3!A17)</f>
         <v/>
@@ -34219,7 +34264,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF(D1D2D3!A18="", "",D1D2D3!A18)</f>
         <v/>
@@ -34243,7 +34288,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF(D1D2D3!A19="", "",D1D2D3!A19)</f>
         <v/>
@@ -34267,7 +34312,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF(D1D2D3!A20="", "",D1D2D3!A20)</f>
         <v/>
@@ -34291,7 +34336,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF(D1D2D3!A21="", "",D1D2D3!A21)</f>
         <v/>
@@ -34315,7 +34360,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF(D1D2D3!A22="", "",D1D2D3!A22)</f>
         <v/>
@@ -34339,7 +34384,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF(D1D2D3!A23="", "",D1D2D3!A23)</f>
         <v/>
@@ -34363,7 +34408,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF(D1D2D3!A24="", "",D1D2D3!A24)</f>
         <v/>
@@ -34387,7 +34432,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF(D1D2D3!A25="", "",D1D2D3!A25)</f>
         <v/>
@@ -34411,7 +34456,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF(D1D2D3!A26="", "",D1D2D3!A26)</f>
         <v/>
@@ -34435,7 +34480,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF(D1D2D3!A27="", "",D1D2D3!A27)</f>
         <v/>
@@ -34459,7 +34504,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF(D1D2D3!A28="", "",D1D2D3!A28)</f>
         <v/>
@@ -34483,7 +34528,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF(D1D2D3!A29="", "",D1D2D3!A29)</f>
         <v/>
@@ -34507,7 +34552,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF(D1D2D3!A30="", "",D1D2D3!A30)</f>
         <v/>
@@ -34531,7 +34576,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF(D1D2D3!A31="", "",D1D2D3!A31)</f>
         <v/>
@@ -34555,7 +34600,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF(D1D2D3!A32="", "",D1D2D3!A32)</f>
         <v/>
@@ -34579,7 +34624,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF(D1D2D3!A33="", "",D1D2D3!A33)</f>
         <v/>
@@ -34603,7 +34648,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF(D1D2D3!A34="", "",D1D2D3!A34)</f>
         <v/>
@@ -34627,7 +34672,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF(D1D2D3!A35="", "",D1D2D3!A35)</f>
         <v/>
@@ -34651,7 +34696,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF(D1D2D3!A36="", "",D1D2D3!A36)</f>
         <v/>
@@ -34675,7 +34720,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF(D1D2D3!A37="", "",D1D2D3!A37)</f>
         <v/>
@@ -34699,7 +34744,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF(D1D2D3!A38="", "",D1D2D3!A38)</f>
         <v/>
@@ -34723,7 +34768,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF(D1D2D3!A39="", "",D1D2D3!A39)</f>
         <v/>
@@ -34747,7 +34792,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF(D1D2D3!A40="", "",D1D2D3!A40)</f>
         <v/>
@@ -34771,7 +34816,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF(D1D2D3!A41="", "",D1D2D3!A41)</f>
         <v/>
@@ -34795,7 +34840,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF(D1D2D3!A42="", "",D1D2D3!A42)</f>
         <v/>
@@ -34819,7 +34864,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF(D1D2D3!A43="", "",D1D2D3!A43)</f>
         <v/>
@@ -34843,7 +34888,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF(D1D2D3!A44="", "",D1D2D3!A44)</f>
         <v/>
@@ -34867,7 +34912,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF(D1D2D3!A45="", "",D1D2D3!A45)</f>
         <v/>
@@ -34891,7 +34936,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF(D1D2D3!A46="", "",D1D2D3!A46)</f>
         <v/>
@@ -34915,7 +34960,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF(D1D2D3!A47="", "",D1D2D3!A47)</f>
         <v/>
@@ -34939,7 +34984,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF(D1D2D3!A48="", "",D1D2D3!A48)</f>
         <v/>
@@ -34963,7 +35008,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF(D1D2D3!A49="", "",D1D2D3!A49)</f>
         <v/>
@@ -34987,7 +35032,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF(D1D2D3!A50="", "",D1D2D3!A50)</f>
         <v/>
@@ -35011,7 +35056,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF(D1D2D3!A51="", "",D1D2D3!A51)</f>
         <v/>
@@ -35035,7 +35080,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF(D1D2D3!A52="", "",D1D2D3!A52)</f>
         <v/>
@@ -35059,7 +35104,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF(D1D2D3!A53="", "",D1D2D3!A53)</f>
         <v/>
@@ -35083,7 +35128,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF(D1D2D3!A54="", "",D1D2D3!A54)</f>
         <v/>
@@ -35107,7 +35152,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF(D1D2D3!A55="", "",D1D2D3!A55)</f>
         <v/>
@@ -35131,7 +35176,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF(D1D2D3!A56="", "",D1D2D3!A56)</f>
         <v/>
@@ -35155,7 +35200,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF(D1D2D3!A57="", "",D1D2D3!A57)</f>
         <v/>
@@ -35179,7 +35224,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF(D1D2D3!A58="", "",D1D2D3!A58)</f>
         <v/>
@@ -35203,7 +35248,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF(D1D2D3!A59="", "",D1D2D3!A59)</f>
         <v/>
@@ -35227,7 +35272,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF(D1D2D3!A60="", "",D1D2D3!A60)</f>
         <v/>
@@ -35251,7 +35296,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF(D1D2D3!A61="", "",D1D2D3!A61)</f>
         <v/>
@@ -35275,7 +35320,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF(D1D2D3!A62="", "",D1D2D3!A62)</f>
         <v/>
@@ -35299,7 +35344,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF(D1D2D3!A63="", "",D1D2D3!A63)</f>
         <v/>
@@ -35323,7 +35368,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF(D1D2D3!A64="", "",D1D2D3!A64)</f>
         <v/>
@@ -35347,7 +35392,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF(D1D2D3!A65="", "",D1D2D3!A65)</f>
         <v/>
@@ -35371,7 +35416,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF(D1D2D3!A66="", "",D1D2D3!A66)</f>
         <v/>
@@ -35395,7 +35440,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF(D1D2D3!A67="", "",D1D2D3!A67)</f>
         <v/>
@@ -35419,7 +35464,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF(D1D2D3!A68="", "",D1D2D3!A68)</f>
         <v/>
@@ -35443,7 +35488,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF(D1D2D3!A69="", "",D1D2D3!A69)</f>
         <v/>
@@ -35467,7 +35512,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF(D1D2D3!A70="", "",D1D2D3!A70)</f>
         <v/>
@@ -35491,7 +35536,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF(D1D2D3!A71="", "",D1D2D3!A71)</f>
         <v/>
@@ -35515,7 +35560,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF(D1D2D3!A72="", "",D1D2D3!A72)</f>
         <v/>
@@ -35539,7 +35584,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF(D1D2D3!A73="", "",D1D2D3!A73)</f>
         <v/>
@@ -35563,7 +35608,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF(D1D2D3!A74="", "",D1D2D3!A74)</f>
         <v/>
@@ -35587,7 +35632,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF(D1D2D3!A75="", "",D1D2D3!A75)</f>
         <v/>
@@ -35611,7 +35656,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF(D1D2D3!A76="", "",D1D2D3!A76)</f>
         <v/>
@@ -35635,7 +35680,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF(D1D2D3!A77="", "",D1D2D3!A77)</f>
         <v/>
@@ -35659,7 +35704,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF(D1D2D3!A78="", "",D1D2D3!A78)</f>
         <v/>
@@ -35683,7 +35728,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF(D1D2D3!A79="", "",D1D2D3!A79)</f>
         <v/>
@@ -35707,7 +35752,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF(D1D2D3!A80="", "",D1D2D3!A80)</f>
         <v/>
@@ -35731,7 +35776,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF(D1D2D3!A81="", "",D1D2D3!A81)</f>
         <v/>
@@ -35755,7 +35800,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF(D1D2D3!A82="", "",D1D2D3!A82)</f>
         <v/>
@@ -35779,7 +35824,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF(D1D2D3!A83="", "",D1D2D3!A83)</f>
         <v/>
@@ -35803,7 +35848,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF(D1D2D3!A84="", "",D1D2D3!A84)</f>
         <v/>
@@ -35827,7 +35872,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF(D1D2D3!A85="", "",D1D2D3!A85)</f>
         <v/>
@@ -35851,7 +35896,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF(D1D2D3!A86="", "",D1D2D3!A86)</f>
         <v/>
@@ -35875,7 +35920,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF(D1D2D3!A87="", "",D1D2D3!A87)</f>
         <v/>
@@ -35899,7 +35944,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF(D1D2D3!A88="", "",D1D2D3!A88)</f>
         <v/>
@@ -35923,7 +35968,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF(D1D2D3!A89="", "",D1D2D3!A89)</f>
         <v/>
@@ -35947,7 +35992,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF(D1D2D3!A90="", "",D1D2D3!A90)</f>
         <v/>
@@ -35971,7 +36016,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF(D1D2D3!A91="", "",D1D2D3!A91)</f>
         <v/>
@@ -35995,7 +36040,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF(D1D2D3!A92="", "",D1D2D3!A92)</f>
         <v/>
@@ -36019,7 +36064,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF(D1D2D3!A93="", "",D1D2D3!A93)</f>
         <v/>
@@ -36043,7 +36088,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF(D1D2D3!A94="", "",D1D2D3!A94)</f>
         <v/>
@@ -36067,7 +36112,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF(D1D2D3!A95="", "",D1D2D3!A95)</f>
         <v/>
@@ -36091,7 +36136,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF(D1D2D3!A96="", "",D1D2D3!A96)</f>
         <v/>
@@ -36115,7 +36160,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF(D1D2D3!A97="", "",D1D2D3!A97)</f>
         <v/>
@@ -36139,7 +36184,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF(D1D2D3!A98="", "",D1D2D3!A98)</f>
         <v/>
@@ -36163,7 +36208,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF(D1D2D3!A99="", "",D1D2D3!A99)</f>
         <v/>
@@ -36187,7 +36232,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF(D1D2D3!A100="", "",D1D2D3!A100)</f>
         <v/>
@@ -36211,7 +36256,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF(D1D2D3!A101="", "",D1D2D3!A101)</f>
         <v/>
@@ -36235,7 +36280,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF(D1D2D3!A102="", "",D1D2D3!A102)</f>
         <v/>
@@ -36250,7 +36295,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF(D1D2D3!A103="", "",D1D2D3!A103)</f>
         <v/>
@@ -36264,7 +36309,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="str">
         <f>IF(D1D2D3!A104="", "",D1D2D3!A104)</f>
         <v/>
@@ -36280,19 +36325,19 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="str">
-        <f>IF(D1D2D3!A105="", "",D1D2D3!A105)</f>
-        <v>Myhrvold, Mathilde Skjærdalen</v>
-      </c>
-      <c r="B105" s="41" t="str">
-        <f>IF(D1D2D3!A105="", "",D1D2D3!P105)</f>
-        <v>-</v>
-      </c>
-      <c r="C105" s="37" t="str">
-        <f>IF(D1D2D3!A105="", "",D1D2D3!Q105)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
+        <v>Foss, Thea Helene Linnerud</v>
+      </c>
+      <c r="B105" s="41">
+        <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
+        <v>117</v>
+      </c>
+      <c r="C105" s="37">
+        <f>IF(D1D2D3!A206="", "",D1D2D3!Q206)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="str">
         <f>IF(D1D2D3!A106="", "",D1D2D3!A106)</f>
         <v>Brenna, Maria</v>
@@ -36306,7 +36351,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="str">
         <f>IF(D1D2D3!A107="", "",D1D2D3!A107)</f>
         <v/>
@@ -36320,7 +36365,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="str">
         <f>IF(D1D2D3!A108="", "",D1D2D3!A108)</f>
         <v/>
@@ -36334,7 +36379,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="str">
         <f>IF(D1D2D3!A109="", "",D1D2D3!A109)</f>
         <v/>
@@ -36348,7 +36393,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="str">
         <f>IF(D1D2D3!A110="", "",D1D2D3!A110)</f>
         <v/>
@@ -36362,7 +36407,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="str">
         <f>IF(D1D2D3!A111="", "",D1D2D3!A111)</f>
         <v/>
@@ -36376,7 +36421,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="str">
         <f>IF(D1D2D3!A112="", "",D1D2D3!A112)</f>
         <v/>
@@ -36390,7 +36435,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="39" t="str">
         <f>IF(D1D2D3!A113="", "",D1D2D3!A113)</f>
         <v/>
@@ -36404,7 +36449,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="str">
         <f>IF(D1D2D3!A114="", "",D1D2D3!A114)</f>
         <v/>
@@ -36418,7 +36463,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="39" t="str">
         <f>IF(D1D2D3!A115="", "",D1D2D3!A115)</f>
         <v/>
@@ -36432,7 +36477,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="str">
         <f>IF(D1D2D3!A116="", "",D1D2D3!A116)</f>
         <v/>
@@ -36446,7 +36491,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="39" t="str">
         <f>IF(D1D2D3!A117="", "",D1D2D3!A117)</f>
         <v/>
@@ -36460,7 +36505,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="str">
         <f>IF(D1D2D3!A118="", "",D1D2D3!A118)</f>
         <v/>
@@ -36474,7 +36519,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39" t="str">
         <f>IF(D1D2D3!A119="", "",D1D2D3!A119)</f>
         <v/>
@@ -36488,7 +36533,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39" t="str">
         <f>IF(D1D2D3!A120="", "",D1D2D3!A120)</f>
         <v/>
@@ -36502,7 +36547,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="39" t="str">
         <f>IF(D1D2D3!A121="", "",D1D2D3!A121)</f>
         <v/>
@@ -36516,7 +36561,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="str">
         <f>IF(D1D2D3!A122="", "",D1D2D3!A122)</f>
         <v/>
@@ -36530,7 +36575,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="39" t="str">
         <f>IF(D1D2D3!A123="", "",D1D2D3!A123)</f>
         <v/>
@@ -36544,7 +36589,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="str">
         <f>IF(D1D2D3!A124="", "",D1D2D3!A124)</f>
         <v/>
@@ -36558,7 +36603,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="39" t="str">
         <f>IF(D1D2D3!A125="", "",D1D2D3!A125)</f>
         <v/>
@@ -36572,7 +36617,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="str">
         <f>IF(D1D2D3!A126="", "",D1D2D3!A126)</f>
         <v/>
@@ -36586,7 +36631,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39" t="str">
         <f>IF(D1D2D3!A127="", "",D1D2D3!A127)</f>
         <v/>
@@ -36600,7 +36645,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39" t="str">
         <f>IF(D1D2D3!A128="", "",D1D2D3!A128)</f>
         <v/>
@@ -36614,7 +36659,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="39" t="str">
         <f>IF(D1D2D3!A129="", "",D1D2D3!A129)</f>
         <v/>
@@ -36628,7 +36673,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39" t="str">
         <f>IF(D1D2D3!A130="", "",D1D2D3!A130)</f>
         <v/>
@@ -36642,7 +36687,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="39" t="str">
         <f>IF(D1D2D3!A131="", "",D1D2D3!A131)</f>
         <v/>
@@ -36656,7 +36701,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="str">
         <f>IF(D1D2D3!A132="", "",D1D2D3!A132)</f>
         <v/>
@@ -36670,7 +36715,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39" t="str">
         <f>IF(D1D2D3!A133="", "",D1D2D3!A133)</f>
         <v/>
@@ -36684,7 +36729,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="39" t="str">
         <f>IF(D1D2D3!A134="", "",D1D2D3!A134)</f>
         <v/>
@@ -36698,7 +36743,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="39" t="str">
         <f>IF(D1D2D3!A135="", "",D1D2D3!A135)</f>
         <v/>
@@ -36712,7 +36757,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="39" t="str">
         <f>IF(D1D2D3!A136="", "",D1D2D3!A136)</f>
         <v/>
@@ -36726,7 +36771,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39" t="str">
         <f>IF(D1D2D3!A137="", "",D1D2D3!A137)</f>
         <v/>
@@ -36740,7 +36785,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="39" t="str">
         <f>IF(D1D2D3!A138="", "",D1D2D3!A138)</f>
         <v/>
@@ -36754,7 +36799,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="39" t="str">
         <f>IF(D1D2D3!A139="", "",D1D2D3!A139)</f>
         <v/>
@@ -36768,7 +36813,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="39" t="str">
         <f>IF(D1D2D3!A140="", "",D1D2D3!A140)</f>
         <v/>
@@ -36782,7 +36827,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="39" t="str">
         <f>IF(D1D2D3!A141="", "",D1D2D3!A141)</f>
         <v/>
@@ -36796,7 +36841,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="39" t="str">
         <f>IF(D1D2D3!A142="", "",D1D2D3!A142)</f>
         <v/>
@@ -36810,7 +36855,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="39" t="str">
         <f>IF(D1D2D3!A143="", "",D1D2D3!A143)</f>
         <v/>
@@ -36824,7 +36869,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="39" t="str">
         <f>IF(D1D2D3!A144="", "",D1D2D3!A144)</f>
         <v/>
@@ -36838,7 +36883,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="39" t="str">
         <f>IF(D1D2D3!A145="", "",D1D2D3!A145)</f>
         <v/>
@@ -36852,7 +36897,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="39" t="str">
         <f>IF(D1D2D3!A146="", "",D1D2D3!A146)</f>
         <v/>
@@ -36866,7 +36911,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="39" t="str">
         <f>IF(D1D2D3!A147="", "",D1D2D3!A147)</f>
         <v/>
@@ -36880,7 +36925,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="39" t="str">
         <f>IF(D1D2D3!A148="", "",D1D2D3!A148)</f>
         <v/>
@@ -36894,7 +36939,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="39" t="str">
         <f>IF(D1D2D3!A149="", "",D1D2D3!A149)</f>
         <v/>
@@ -36908,7 +36953,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="39" t="str">
         <f>IF(D1D2D3!A150="", "",D1D2D3!A150)</f>
         <v/>
@@ -36922,7 +36967,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="39" t="str">
         <f>IF(D1D2D3!A151="", "",D1D2D3!A151)</f>
         <v/>
@@ -36936,7 +36981,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="str">
         <f>IF(D1D2D3!A152="", "",D1D2D3!A152)</f>
         <v/>
@@ -36950,7 +36995,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="39" t="str">
         <f>IF(D1D2D3!A153="", "",D1D2D3!A153)</f>
         <v/>
@@ -36964,7 +37009,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="39" t="str">
         <f>IF(D1D2D3!A154="", "",D1D2D3!A154)</f>
         <v/>
@@ -36978,7 +37023,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="39" t="str">
         <f>IF(D1D2D3!A155="", "",D1D2D3!A155)</f>
         <v/>
@@ -36992,7 +37037,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="39" t="str">
         <f>IF(D1D2D3!A156="", "",D1D2D3!A156)</f>
         <v/>
@@ -37006,7 +37051,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="39" t="str">
         <f>IF(D1D2D3!A157="", "",D1D2D3!A157)</f>
         <v/>
@@ -37020,7 +37065,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="39" t="str">
         <f>IF(D1D2D3!A158="", "",D1D2D3!A158)</f>
         <v/>
@@ -37034,7 +37079,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="39" t="str">
         <f>IF(D1D2D3!A159="", "",D1D2D3!A159)</f>
         <v/>
@@ -37048,7 +37093,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="39" t="str">
         <f>IF(D1D2D3!A160="", "",D1D2D3!A160)</f>
         <v/>
@@ -37062,7 +37107,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="39" t="str">
         <f>IF(D1D2D3!A161="", "",D1D2D3!A161)</f>
         <v/>
@@ -37076,7 +37121,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="39" t="str">
         <f>IF(D1D2D3!A162="", "",D1D2D3!A162)</f>
         <v/>
@@ -37090,7 +37135,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="39" t="str">
         <f>IF(D1D2D3!A163="", "",D1D2D3!A163)</f>
         <v/>
@@ -37104,7 +37149,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="39" t="str">
         <f>IF(D1D2D3!A164="", "",D1D2D3!A164)</f>
         <v/>
@@ -37118,7 +37163,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="39" t="str">
         <f>IF(D1D2D3!A165="", "",D1D2D3!A165)</f>
         <v/>
@@ -37132,7 +37177,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="39" t="str">
         <f>IF(D1D2D3!A166="", "",D1D2D3!A166)</f>
         <v/>
@@ -37146,7 +37191,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="39" t="str">
         <f>IF(D1D2D3!A167="", "",D1D2D3!A167)</f>
         <v/>
@@ -37160,7 +37205,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="39" t="str">
         <f>IF(D1D2D3!A168="", "",D1D2D3!A168)</f>
         <v/>
@@ -37174,7 +37219,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="39" t="str">
         <f>IF(D1D2D3!A169="", "",D1D2D3!A169)</f>
         <v/>
@@ -37188,7 +37233,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="39" t="str">
         <f>IF(D1D2D3!A170="", "",D1D2D3!A170)</f>
         <v/>
@@ -37202,7 +37247,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="39" t="str">
         <f>IF(D1D2D3!A171="", "",D1D2D3!A171)</f>
         <v/>
@@ -37216,7 +37261,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="str">
         <f>IF(D1D2D3!A172="", "",D1D2D3!A172)</f>
         <v/>
@@ -37230,7 +37275,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="39" t="str">
         <f>IF(D1D2D3!A173="", "",D1D2D3!A173)</f>
         <v/>
@@ -37244,7 +37289,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="39" t="str">
         <f>IF(D1D2D3!A174="", "",D1D2D3!A174)</f>
         <v/>
@@ -37258,7 +37303,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="39" t="str">
         <f>IF(D1D2D3!A175="", "",D1D2D3!A175)</f>
         <v/>
@@ -37272,7 +37317,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="39" t="str">
         <f>IF(D1D2D3!A176="", "",D1D2D3!A176)</f>
         <v/>
@@ -37286,7 +37331,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="39" t="str">
         <f>IF(D1D2D3!A177="", "",D1D2D3!A177)</f>
         <v/>
@@ -37300,7 +37345,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="39" t="str">
         <f>IF(D1D2D3!A178="", "",D1D2D3!A178)</f>
         <v/>
@@ -37314,7 +37359,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="39" t="str">
         <f>IF(D1D2D3!A179="", "",D1D2D3!A179)</f>
         <v/>
@@ -37328,7 +37373,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="39" t="str">
         <f>IF(D1D2D3!A180="", "",D1D2D3!A180)</f>
         <v/>
@@ -37342,7 +37387,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="39" t="str">
         <f>IF(D1D2D3!A181="", "",D1D2D3!A181)</f>
         <v/>
@@ -37356,7 +37401,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="39" t="str">
         <f>IF(D1D2D3!A182="", "",D1D2D3!A182)</f>
         <v/>
@@ -37370,7 +37415,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="39" t="str">
         <f>IF(D1D2D3!A183="", "",D1D2D3!A183)</f>
         <v/>
@@ -37384,7 +37429,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="39" t="str">
         <f>IF(D1D2D3!A184="", "",D1D2D3!A184)</f>
         <v/>
@@ -37398,7 +37443,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="39" t="str">
         <f>IF(D1D2D3!A185="", "",D1D2D3!A185)</f>
         <v/>
@@ -37412,7 +37457,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="39" t="str">
         <f>IF(D1D2D3!A186="", "",D1D2D3!A186)</f>
         <v/>
@@ -37426,7 +37471,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="39" t="str">
         <f>IF(D1D2D3!A187="", "",D1D2D3!A187)</f>
         <v/>
@@ -37440,7 +37485,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="39" t="str">
         <f>IF(D1D2D3!A188="", "",D1D2D3!A188)</f>
         <v/>
@@ -37454,7 +37499,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="39" t="str">
         <f>IF(D1D2D3!A189="", "",D1D2D3!A189)</f>
         <v/>
@@ -37468,7 +37513,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="39" t="str">
         <f>IF(D1D2D3!A190="", "",D1D2D3!A190)</f>
         <v/>
@@ -37482,7 +37527,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="39" t="str">
         <f>IF(D1D2D3!A191="", "",D1D2D3!A191)</f>
         <v/>
@@ -37496,7 +37541,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="39" t="str">
         <f>IF(D1D2D3!A192="", "",D1D2D3!A192)</f>
         <v/>
@@ -37510,7 +37555,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="39" t="str">
         <f>IF(D1D2D3!A193="", "",D1D2D3!A193)</f>
         <v/>
@@ -37524,7 +37569,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="39" t="str">
         <f>IF(D1D2D3!A194="", "",D1D2D3!A194)</f>
         <v/>
@@ -37538,7 +37583,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="39" t="str">
         <f>IF(D1D2D3!A195="", "",D1D2D3!A195)</f>
         <v/>
@@ -37552,7 +37597,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="39" t="str">
         <f>IF(D1D2D3!A196="", "",D1D2D3!A196)</f>
         <v/>
@@ -37566,7 +37611,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="39" t="str">
         <f>IF(D1D2D3!A197="", "",D1D2D3!A197)</f>
         <v/>
@@ -37580,7 +37625,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="39" t="str">
         <f>IF(D1D2D3!A198="", "",D1D2D3!A198)</f>
         <v/>
@@ -37594,7 +37639,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="39" t="str">
         <f>IF(D1D2D3!A199="", "",D1D2D3!A199)</f>
         <v/>
@@ -37608,7 +37653,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="39" t="str">
         <f>IF(D1D2D3!A200="", "",D1D2D3!A200)</f>
         <v/>
@@ -37622,7 +37667,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="39" t="str">
         <f>IF(D1D2D3!A201="", "",D1D2D3!A201)</f>
         <v/>
@@ -37636,7 +37681,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="39" t="str">
         <f>IF(D1D2D3!A202="", "",D1D2D3!A202)</f>
         <v/>
@@ -37650,7 +37695,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="39" t="str">
         <f>IF(D1D2D3!A203="", "",D1D2D3!A203)</f>
         <v/>
@@ -37669,30 +37714,30 @@
         <f>IF(D1D2D3!A205="", "",D1D2D3!A205)</f>
         <v>Lindmoen, Anita Bueno</v>
       </c>
-      <c r="B204" s="41" t="str">
+      <c r="B204" s="41">
         <f>IF(D1D2D3!A205="", "",D1D2D3!P205)</f>
-        <v>-</v>
-      </c>
-      <c r="C204" s="37" t="str">
+        <v>112</v>
+      </c>
+      <c r="C204" s="37">
         <f>IF(D1D2D3!A205="", "",D1D2D3!Q205)</f>
-        <v>-</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="39" t="str">
-        <f>IF(D1D2D3!A206="", "",D1D2D3!A206)</f>
-        <v>Foss, Thea Helene Linnerud</v>
-      </c>
-      <c r="B205" s="41" t="str">
-        <f>IF(D1D2D3!A206="", "",D1D2D3!P206)</f>
-        <v>-</v>
-      </c>
-      <c r="C205" s="37" t="str">
-        <f>IF(D1D2D3!A206="", "",D1D2D3!Q206)</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+        <f>IF(D1D2D3!A12="", "",D1D2D3!A12)</f>
+        <v>Vestengen, Siri</v>
+      </c>
+      <c r="B205" s="41">
+        <f>IF(D1D2D3!A12="", "",D1D2D3!P12)</f>
+        <v>108</v>
+      </c>
+      <c r="C205" s="37">
+        <f>IF(D1D2D3!A12="", "",D1D2D3!Q12)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="39" t="str">
         <f>IF(D1D2D3!A207="", "",D1D2D3!A207)</f>
         <v/>
@@ -37706,7 +37751,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="39" t="str">
         <f>IF(D1D2D3!A208="", "",D1D2D3!A208)</f>
         <v/>
@@ -37720,7 +37765,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="39" t="str">
         <f>IF(D1D2D3!A209="", "",D1D2D3!A209)</f>
         <v/>
@@ -37734,7 +37779,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="39" t="str">
         <f>IF(D1D2D3!A210="", "",D1D2D3!A210)</f>
         <v/>
@@ -37748,7 +37793,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="39" t="str">
         <f>IF(D1D2D3!A211="", "",D1D2D3!A211)</f>
         <v/>
@@ -37762,7 +37807,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="39" t="str">
         <f>IF(D1D2D3!A212="", "",D1D2D3!A212)</f>
         <v/>
@@ -37776,7 +37821,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="39" t="str">
         <f>IF(D1D2D3!A213="", "",D1D2D3!A213)</f>
         <v/>
@@ -37790,7 +37835,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="39" t="str">
         <f>IF(D1D2D3!A214="", "",D1D2D3!A214)</f>
         <v/>
@@ -37804,7 +37849,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="39" t="str">
         <f>IF(D1D2D3!A215="", "",D1D2D3!A215)</f>
         <v/>
@@ -37818,7 +37863,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="39" t="str">
         <f>IF(D1D2D3!A216="", "",D1D2D3!A216)</f>
         <v/>
@@ -37832,7 +37877,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="39" t="str">
         <f>IF(D1D2D3!A217="", "",D1D2D3!A217)</f>
         <v/>
@@ -37846,7 +37891,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="39" t="str">
         <f>IF(D1D2D3!A218="", "",D1D2D3!A218)</f>
         <v/>
@@ -37860,7 +37905,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="39" t="str">
         <f>IF(D1D2D3!A219="", "",D1D2D3!A219)</f>
         <v/>
@@ -37874,7 +37919,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="39" t="str">
         <f>IF(D1D2D3!A220="", "",D1D2D3!A220)</f>
         <v/>
@@ -37888,7 +37933,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="39" t="str">
         <f>IF(D1D2D3!A221="", "",D1D2D3!A221)</f>
         <v/>
@@ -37902,7 +37947,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="39" t="str">
         <f>IF(D1D2D3!A222="", "",D1D2D3!A222)</f>
         <v/>
@@ -37916,7 +37961,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="39" t="str">
         <f>IF(D1D2D3!A223="", "",D1D2D3!A223)</f>
         <v/>
@@ -37930,7 +37975,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="39" t="str">
         <f>IF(D1D2D3!A224="", "",D1D2D3!A224)</f>
         <v/>
@@ -37944,7 +37989,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="39" t="str">
         <f>IF(D1D2D3!A225="", "",D1D2D3!A225)</f>
         <v/>
@@ -37958,7 +38003,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="39" t="str">
         <f>IF(D1D2D3!A226="", "",D1D2D3!A226)</f>
         <v/>
@@ -37972,7 +38017,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="39" t="str">
         <f>IF(D1D2D3!A227="", "",D1D2D3!A227)</f>
         <v/>
@@ -37986,7 +38031,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="39" t="str">
         <f>IF(D1D2D3!A228="", "",D1D2D3!A228)</f>
         <v/>
@@ -38000,7 +38045,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="39" t="str">
         <f>IF(D1D2D3!A229="", "",D1D2D3!A229)</f>
         <v/>
@@ -38014,7 +38059,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="39" t="str">
         <f>IF(D1D2D3!A230="", "",D1D2D3!A230)</f>
         <v/>
@@ -38028,7 +38073,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="39" t="str">
         <f>IF(D1D2D3!A231="", "",D1D2D3!A231)</f>
         <v/>
@@ -38042,7 +38087,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="39" t="str">
         <f>IF(D1D2D3!A232="", "",D1D2D3!A232)</f>
         <v/>
@@ -38056,7 +38101,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="39" t="str">
         <f>IF(D1D2D3!A233="", "",D1D2D3!A233)</f>
         <v/>
@@ -38070,7 +38115,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="39" t="str">
         <f>IF(D1D2D3!A234="", "",D1D2D3!A234)</f>
         <v/>
@@ -38084,7 +38129,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="39" t="str">
         <f>IF(D1D2D3!A235="", "",D1D2D3!A235)</f>
         <v/>
@@ -38098,7 +38143,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="39" t="str">
         <f>IF(D1D2D3!A236="", "",D1D2D3!A236)</f>
         <v/>
@@ -38112,7 +38157,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="39" t="str">
         <f>IF(D1D2D3!A237="", "",D1D2D3!A237)</f>
         <v/>
@@ -38126,7 +38171,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="39" t="str">
         <f>IF(D1D2D3!A238="", "",D1D2D3!A238)</f>
         <v/>
@@ -38140,7 +38185,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="39" t="str">
         <f>IF(D1D2D3!A239="", "",D1D2D3!A239)</f>
         <v/>
@@ -38154,7 +38199,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="39" t="str">
         <f>IF(D1D2D3!A240="", "",D1D2D3!A240)</f>
         <v/>
@@ -38168,7 +38213,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="39" t="str">
         <f>IF(D1D2D3!A241="", "",D1D2D3!A241)</f>
         <v/>
@@ -38182,7 +38227,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="39" t="str">
         <f>IF(D1D2D3!A242="", "",D1D2D3!A242)</f>
         <v/>
@@ -38196,7 +38241,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="39" t="str">
         <f>IF(D1D2D3!A243="", "",D1D2D3!A243)</f>
         <v/>
@@ -38210,7 +38255,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="39" t="str">
         <f>IF(D1D2D3!A244="", "",D1D2D3!A244)</f>
         <v/>
@@ -38224,7 +38269,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="39" t="str">
         <f>IF(D1D2D3!A245="", "",D1D2D3!A245)</f>
         <v/>
@@ -38238,7 +38283,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="39" t="str">
         <f>IF(D1D2D3!A246="", "",D1D2D3!A246)</f>
         <v/>
@@ -38252,7 +38297,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="39" t="str">
         <f>IF(D1D2D3!A247="", "",D1D2D3!A247)</f>
         <v/>
@@ -38266,7 +38311,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="39" t="str">
         <f>IF(D1D2D3!A248="", "",D1D2D3!A248)</f>
         <v/>
@@ -38280,7 +38325,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="39" t="str">
         <f>IF(D1D2D3!A249="", "",D1D2D3!A249)</f>
         <v/>
@@ -38294,7 +38339,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="39" t="str">
         <f>IF(D1D2D3!A250="", "",D1D2D3!A250)</f>
         <v/>
@@ -38308,7 +38353,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="39" t="str">
         <f>IF(D1D2D3!A251="", "",D1D2D3!A251)</f>
         <v/>
@@ -38322,7 +38367,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="39" t="str">
         <f>IF(D1D2D3!A252="", "",D1D2D3!A252)</f>
         <v/>
@@ -38336,7 +38381,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="39" t="str">
         <f>IF(D1D2D3!A253="", "",D1D2D3!A253)</f>
         <v/>
@@ -38350,7 +38395,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="39" t="str">
         <f>IF(D1D2D3!A254="", "",D1D2D3!A254)</f>
         <v/>
@@ -38364,7 +38409,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="39" t="str">
         <f>IF(D1D2D3!A255="", "",D1D2D3!A255)</f>
         <v/>
@@ -38378,7 +38423,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="39" t="str">
         <f>IF(D1D2D3!A256="", "",D1D2D3!A256)</f>
         <v/>
@@ -38392,7 +38437,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="39" t="str">
         <f>IF(D1D2D3!A257="", "",D1D2D3!A257)</f>
         <v/>
@@ -38406,7 +38451,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="39" t="str">
         <f>IF(D1D2D3!A258="", "",D1D2D3!A258)</f>
         <v/>
@@ -38420,7 +38465,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="39" t="str">
         <f>IF(D1D2D3!A259="", "",D1D2D3!A259)</f>
         <v/>
@@ -38434,7 +38479,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="39" t="str">
         <f>IF(D1D2D3!A260="", "",D1D2D3!A260)</f>
         <v/>
@@ -38448,7 +38493,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="39" t="str">
         <f>IF(D1D2D3!A261="", "",D1D2D3!A261)</f>
         <v/>
@@ -38462,7 +38507,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="39" t="str">
         <f>IF(D1D2D3!A262="", "",D1D2D3!A262)</f>
         <v/>
@@ -38476,7 +38521,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="39" t="str">
         <f>IF(D1D2D3!A263="", "",D1D2D3!A263)</f>
         <v/>
@@ -38490,7 +38535,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="39" t="str">
         <f>IF(D1D2D3!A264="", "",D1D2D3!A264)</f>
         <v/>
@@ -38504,7 +38549,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="39" t="str">
         <f>IF(D1D2D3!A265="", "",D1D2D3!A265)</f>
         <v/>
@@ -38518,7 +38563,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="39" t="str">
         <f>IF(D1D2D3!A266="", "",D1D2D3!A266)</f>
         <v/>
@@ -38532,7 +38577,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="39" t="str">
         <f>IF(D1D2D3!A267="", "",D1D2D3!A267)</f>
         <v/>
@@ -38546,7 +38591,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="39" t="str">
         <f>IF(D1D2D3!A268="", "",D1D2D3!A268)</f>
         <v/>
@@ -38560,7 +38605,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="39" t="str">
         <f>IF(D1D2D3!A269="", "",D1D2D3!A269)</f>
         <v/>
@@ -38574,7 +38619,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="39" t="str">
         <f>IF(D1D2D3!A270="", "",D1D2D3!A270)</f>
         <v/>
@@ -38588,7 +38633,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="39" t="str">
         <f>IF(D1D2D3!A271="", "",D1D2D3!A271)</f>
         <v/>
@@ -38602,7 +38647,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="39" t="str">
         <f>IF(D1D2D3!A272="", "",D1D2D3!A272)</f>
         <v/>
@@ -38616,7 +38661,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="39" t="str">
         <f>IF(D1D2D3!A273="", "",D1D2D3!A273)</f>
         <v/>
@@ -38630,7 +38675,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="39" t="str">
         <f>IF(D1D2D3!A274="", "",D1D2D3!A274)</f>
         <v/>
@@ -38644,7 +38689,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="39" t="str">
         <f>IF(D1D2D3!A275="", "",D1D2D3!A275)</f>
         <v/>
@@ -38658,7 +38703,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="39" t="str">
         <f>IF(D1D2D3!A276="", "",D1D2D3!A276)</f>
         <v/>
@@ -38672,7 +38717,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="39" t="str">
         <f>IF(D1D2D3!A277="", "",D1D2D3!A277)</f>
         <v/>
@@ -38686,7 +38731,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="39" t="str">
         <f>IF(D1D2D3!A278="", "",D1D2D3!A278)</f>
         <v/>
@@ -38700,7 +38745,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="39" t="str">
         <f>IF(D1D2D3!A279="", "",D1D2D3!A279)</f>
         <v/>
@@ -38714,7 +38759,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="39" t="str">
         <f>IF(D1D2D3!A280="", "",D1D2D3!A280)</f>
         <v/>
@@ -38728,7 +38773,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="39" t="str">
         <f>IF(D1D2D3!A281="", "",D1D2D3!A281)</f>
         <v/>
@@ -38742,7 +38787,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="39" t="str">
         <f>IF(D1D2D3!A282="", "",D1D2D3!A282)</f>
         <v/>
@@ -38756,7 +38801,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="39" t="str">
         <f>IF(D1D2D3!A283="", "",D1D2D3!A283)</f>
         <v/>
@@ -38770,7 +38815,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="39" t="str">
         <f>IF(D1D2D3!A284="", "",D1D2D3!A284)</f>
         <v/>
@@ -38784,7 +38829,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="39" t="str">
         <f>IF(D1D2D3!A285="", "",D1D2D3!A285)</f>
         <v/>
@@ -38798,7 +38843,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="39" t="str">
         <f>IF(D1D2D3!A286="", "",D1D2D3!A286)</f>
         <v/>
@@ -38812,7 +38857,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="39" t="str">
         <f>IF(D1D2D3!A287="", "",D1D2D3!A287)</f>
         <v/>
@@ -38826,7 +38871,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="39" t="str">
         <f>IF(D1D2D3!A288="", "",D1D2D3!A288)</f>
         <v/>
@@ -38840,7 +38885,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="39" t="str">
         <f>IF(D1D2D3!A289="", "",D1D2D3!A289)</f>
         <v/>
@@ -38854,7 +38899,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="39" t="str">
         <f>IF(D1D2D3!A290="", "",D1D2D3!A290)</f>
         <v/>
@@ -38868,7 +38913,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="39" t="str">
         <f>IF(D1D2D3!A291="", "",D1D2D3!A291)</f>
         <v/>
@@ -38882,7 +38927,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="39" t="str">
         <f>IF(D1D2D3!A292="", "",D1D2D3!A292)</f>
         <v/>
@@ -38896,7 +38941,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="39" t="str">
         <f>IF(D1D2D3!A293="", "",D1D2D3!A293)</f>
         <v/>
@@ -38910,7 +38955,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="39" t="str">
         <f>IF(D1D2D3!A294="", "",D1D2D3!A294)</f>
         <v/>
@@ -38924,7 +38969,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="39" t="str">
         <f>IF(D1D2D3!A295="", "",D1D2D3!A295)</f>
         <v/>
@@ -38938,7 +38983,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="39" t="str">
         <f>IF(D1D2D3!A296="", "",D1D2D3!A296)</f>
         <v/>
@@ -38952,7 +38997,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="39" t="str">
         <f>IF(D1D2D3!A297="", "",D1D2D3!A297)</f>
         <v/>
@@ -38966,7 +39011,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="39" t="str">
         <f>IF(D1D2D3!A298="", "",D1D2D3!A298)</f>
         <v/>
@@ -38980,7 +39025,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="39" t="str">
         <f>IF(D1D2D3!A299="", "",D1D2D3!A299)</f>
         <v/>
@@ -38994,7 +39039,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="39" t="str">
         <f>IF(D1D2D3!A300="", "",D1D2D3!A300)</f>
         <v/>
@@ -39008,7 +39053,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="39" t="str">
         <f>IF(D1D2D3!A301="", "",D1D2D3!A301)</f>
         <v/>
@@ -39022,7 +39067,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="39" t="str">
         <f>IF(D1D2D3!A302="", "",D1D2D3!A302)</f>
         <v/>
@@ -39036,7 +39081,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="39" t="str">
         <f>IF(D1D2D3!A303="", "",D1D2D3!A303)</f>
         <v/>
@@ -39052,27 +39097,40 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="39" t="str">
-        <f>IF(D1D2D3!A204="", "",D1D2D3!A204)</f>
-        <v>Seierstad, Dorthe Ballangrud</v>
-      </c>
-      <c r="B303" s="41" t="str">
-        <f>IF(D1D2D3!A204="", "",D1D2D3!P204)</f>
-        <v>-</v>
-      </c>
-      <c r="C303" s="37" t="str">
-        <f>IF(D1D2D3!A204="", "",D1D2D3!Q204)</f>
-        <v>-</v>
+        <f>IF(D1D2D3!A9="", "",D1D2D3!A9)</f>
+        <v>Silber, Natascha Nina</v>
+      </c>
+      <c r="B303" s="41">
+        <f>IF(D1D2D3!A9="", "",D1D2D3!P9)</f>
+        <v>101</v>
+      </c>
+      <c r="C303" s="37">
+        <f>IF(D1D2D3!A9="", "",D1D2D3!Q9)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <sheetProtection sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C303">
-    <sortState ref="A4:C303">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+        <filter val="7"/>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A6:C303">
       <sortCondition ref="C3:C303"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -39858,7 +39916,7 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39975,26 +40033,28 @@
         <f>IF(A4="","",IFERROR(VLOOKUP(F4,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>100</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="10" t="str">
+      <c r="H4" s="25">
+        <v>7.0555555555555552E-2</v>
+      </c>
+      <c r="I4" s="10">
         <f>IF(A4="","",IFERROR(RANK(H4,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J4" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
         <f>IF(A4="","",IFERROR(VLOOKUP(I4,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>100</v>
       </c>
       <c r="K4" s="26">
         <f>IF(A4="","",IFERROR(IF(B4+E4+H4=0,"",B4+E4+H4), "-"))</f>
-        <v>3.6469907407407409E-2</v>
-      </c>
-      <c r="L4" s="10" t="str">
+        <v>0.10702546296296296</v>
+      </c>
+      <c r="L4" s="10">
         <f>IF(A4="","",IFERROR(RANK(M4,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M4" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
         <f>IF(A4="","",IFERROR(IF(D4+G4+J4=0,"0",D4+G4+J4),"-"))</f>
-        <v>-</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -40023,26 +40083,28 @@
         <f>IF(A5="","",IFERROR(VLOOKUP(F5,Poengskala!$A$2:$B$134,2),"-"))</f>
         <v>80</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="10" t="str">
+      <c r="H5" s="25">
+        <v>7.615740740740741E-2</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I68" si="2">IF(A5="","",IFERROR(RANK(H5,$H$4:$H$300,1),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="J5" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
         <f>IF(A5="","",IFERROR(VLOOKUP(I5,Poengskala!$A$2:$B$134,2),"-"))</f>
-        <v>-</v>
+        <v>80</v>
       </c>
       <c r="K5" s="26">
         <f t="shared" ref="K5:K68" si="3">IF(A5="","",IFERROR(IF(B5+E5+H5=0,"",B5+E5+H5), "-"))</f>
-        <v>4.2893518518518518E-2</v>
-      </c>
-      <c r="L5" s="10" t="str">
+        <v>0.11905092592592592</v>
+      </c>
+      <c r="L5" s="10">
         <f t="shared" ref="L5:L68" si="4">IF(A5="","",IFERROR(RANK(M5,$M$4:$M$300,0),"-"))</f>
-        <v>-</v>
-      </c>
-      <c r="M5" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="M5" s="12">
         <f t="shared" ref="M5:M68" si="5">IF(A5="","",IFERROR(IF(D5+G5+J5=0,"0",D5+G5+J5),"-"))</f>
-        <v>-</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -53412,11 +53474,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53487,11 +53549,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K1'!A4="", "",'K1'!H4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>7.4050925925925923E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K1'!A4="", "",'K1'!I4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -53504,7 +53566,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="str">
         <f>IF('K1'!A5="", "",'K1'!A5)</f>
         <v>Brenna, Maria</v>
@@ -53530,16 +53592,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="str">
-        <f>IF('K1'!A6="", "",'K1'!A6)</f>
-        <v>Foss, Thea Helene Linnerud</v>
+        <f>IF('K1'!A11="", "",'K1'!A11)</f>
+        <v>Strandlie, Kristine Haanes</v>
       </c>
       <c r="B6" s="36">
-        <f>IF('K1'!A6="", "",'K1'!H6)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="37" t="str">
-        <f>IF('K1'!A6="", "",'K1'!I6)</f>
-        <v>-</v>
+        <f>IF('K1'!A11="", "",'K1'!H11)</f>
+        <v>7.5185185185185188E-2</v>
+      </c>
+      <c r="C6" s="37">
+        <f>IF('K1'!A11="", "",'K1'!I11)</f>
+        <v>2</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="25"/>
@@ -53554,16 +53616,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="str">
-        <f>IF('K1'!A7="", "",'K1'!A7)</f>
-        <v>Lindmoen, Anita Bueno</v>
+        <f>IF('K1'!A6="", "",'K1'!A6)</f>
+        <v>Foss, Thea Helene Linnerud</v>
       </c>
       <c r="B7" s="36">
-        <f>IF('K1'!A7="", "",'K1'!H7)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="str">
-        <f>IF('K1'!A7="", "",'K1'!I7)</f>
-        <v>-</v>
+        <f>IF('K1'!A6="", "",'K1'!H6)</f>
+        <v>7.8981481481481486E-2</v>
+      </c>
+      <c r="C7" s="37">
+        <f>IF('K1'!A6="", "",'K1'!I6)</f>
+        <v>3</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="25"/>
@@ -53576,14 +53638,14 @@
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="str">
         <f>IF('K1'!A8="", "",'K1'!A8)</f>
         <v>Ragnhildsløkken, Johanne Lunde</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="36" t="str">
         <f>IF('K1'!A8="", "",'K1'!H8)</f>
-        <v>0</v>
+        <v>DNF</v>
       </c>
       <c r="C8" s="37" t="str">
         <f>IF('K1'!A8="", "",'K1'!I8)</f>
@@ -53602,16 +53664,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="str">
-        <f>IF('K1'!A9="", "",'K1'!A9)</f>
-        <v>Silber, Natascha Nina</v>
+        <f>IF('K1'!A7="", "",'K1'!A7)</f>
+        <v>Lindmoen, Anita Bueno</v>
       </c>
       <c r="B9" s="36">
-        <f>IF('K1'!A9="", "",'K1'!H9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="37" t="str">
-        <f>IF('K1'!A9="", "",'K1'!I9)</f>
-        <v>-</v>
+        <f>IF('K1'!A7="", "",'K1'!H7)</f>
+        <v>8.0497685185185186E-2</v>
+      </c>
+      <c r="C9" s="37">
+        <f>IF('K1'!A7="", "",'K1'!I7)</f>
+        <v>4</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="25"/>
@@ -53624,7 +53686,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="str">
         <f>IF('K1'!A10="", "",'K1'!A10)</f>
         <v>Snortheimsmoen, Thea</v>
@@ -53650,16 +53712,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="str">
-        <f>IF('K1'!A11="", "",'K1'!A11)</f>
-        <v>Strandlie, Kristine Haanes</v>
+        <f>IF('K1'!A12="", "",'K1'!A12)</f>
+        <v>Vestengen, Siri</v>
       </c>
       <c r="B11" s="36">
-        <f>IF('K1'!A11="", "",'K1'!H11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="37" t="str">
-        <f>IF('K1'!A11="", "",'K1'!I11)</f>
-        <v>-</v>
+        <f>IF('K1'!A12="", "",'K1'!H12)</f>
+        <v>8.3888888888888888E-2</v>
+      </c>
+      <c r="C11" s="37">
+        <f>IF('K1'!A12="", "",'K1'!I12)</f>
+        <v>5</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="25"/>
@@ -53674,16 +53736,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="str">
-        <f>IF('K1'!A12="", "",'K1'!A12)</f>
-        <v>Vestengen, Siri</v>
+        <f>IF('K1'!A9="", "",'K1'!A9)</f>
+        <v>Silber, Natascha Nina</v>
       </c>
       <c r="B12" s="36">
-        <f>IF('K1'!A12="", "",'K1'!H12)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="37" t="str">
-        <f>IF('K1'!A12="", "",'K1'!I12)</f>
-        <v>-</v>
+        <f>IF('K1'!A9="", "",'K1'!H9)</f>
+        <v>8.7025462962962971E-2</v>
+      </c>
+      <c r="C12" s="37">
+        <f>IF('K1'!A9="", "",'K1'!I9)</f>
+        <v>6</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="25"/>
@@ -53696,7 +53758,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="str">
         <f>IF('K1'!A13="", "",'K1'!A13)</f>
         <v>Lunde, Johanne</v>
@@ -53720,7 +53782,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="str">
         <f>IF('K1'!A14="", "",'K1'!A14)</f>
         <v/>
@@ -53744,7 +53806,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="str">
         <f>IF('K1'!A15="", "",'K1'!A15)</f>
         <v/>
@@ -53768,7 +53830,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="str">
         <f>IF('K1'!A16="", "",'K1'!A16)</f>
         <v/>
@@ -53792,7 +53854,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="str">
         <f>IF('K1'!A17="", "",'K1'!A17)</f>
         <v/>
@@ -53816,7 +53878,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="str">
         <f>IF('K1'!A18="", "",'K1'!A18)</f>
         <v/>
@@ -53840,7 +53902,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="str">
         <f>IF('K1'!A19="", "",'K1'!A19)</f>
         <v/>
@@ -53864,7 +53926,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="str">
         <f>IF('K1'!A20="", "",'K1'!A20)</f>
         <v/>
@@ -53888,7 +53950,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="str">
         <f>IF('K1'!A21="", "",'K1'!A21)</f>
         <v/>
@@ -53912,7 +53974,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="str">
         <f>IF('K1'!A22="", "",'K1'!A22)</f>
         <v/>
@@ -53936,7 +53998,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="str">
         <f>IF('K1'!A23="", "",'K1'!A23)</f>
         <v/>
@@ -53960,7 +54022,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="str">
         <f>IF('K1'!A24="", "",'K1'!A24)</f>
         <v/>
@@ -53984,7 +54046,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="str">
         <f>IF('K1'!A25="", "",'K1'!A25)</f>
         <v/>
@@ -54008,7 +54070,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="str">
         <f>IF('K1'!A26="", "",'K1'!A26)</f>
         <v/>
@@ -54032,7 +54094,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="str">
         <f>IF('K1'!A27="", "",'K1'!A27)</f>
         <v/>
@@ -54056,7 +54118,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="str">
         <f>IF('K1'!A28="", "",'K1'!A28)</f>
         <v/>
@@ -54080,7 +54142,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="str">
         <f>IF('K1'!A29="", "",'K1'!A29)</f>
         <v/>
@@ -54104,7 +54166,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="str">
         <f>IF('K1'!A30="", "",'K1'!A30)</f>
         <v/>
@@ -54128,7 +54190,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="str">
         <f>IF('K1'!A31="", "",'K1'!A31)</f>
         <v/>
@@ -54152,7 +54214,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="str">
         <f>IF('K1'!A32="", "",'K1'!A32)</f>
         <v/>
@@ -54176,7 +54238,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="str">
         <f>IF('K1'!A33="", "",'K1'!A33)</f>
         <v/>
@@ -54200,7 +54262,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="str">
         <f>IF('K1'!A34="", "",'K1'!A34)</f>
         <v/>
@@ -54224,7 +54286,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="str">
         <f>IF('K1'!A35="", "",'K1'!A35)</f>
         <v/>
@@ -54248,7 +54310,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="str">
         <f>IF('K1'!A36="", "",'K1'!A36)</f>
         <v/>
@@ -54272,7 +54334,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="str">
         <f>IF('K1'!A37="", "",'K1'!A37)</f>
         <v/>
@@ -54296,7 +54358,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="str">
         <f>IF('K1'!A38="", "",'K1'!A38)</f>
         <v/>
@@ -54320,7 +54382,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="str">
         <f>IF('K1'!A39="", "",'K1'!A39)</f>
         <v/>
@@ -54344,7 +54406,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="str">
         <f>IF('K1'!A40="", "",'K1'!A40)</f>
         <v/>
@@ -54368,7 +54430,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="str">
         <f>IF('K1'!A41="", "",'K1'!A41)</f>
         <v/>
@@ -54392,7 +54454,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="str">
         <f>IF('K1'!A42="", "",'K1'!A42)</f>
         <v/>
@@ -54416,7 +54478,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="str">
         <f>IF('K1'!A43="", "",'K1'!A43)</f>
         <v/>
@@ -54440,7 +54502,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="str">
         <f>IF('K1'!A44="", "",'K1'!A44)</f>
         <v/>
@@ -54464,7 +54526,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="str">
         <f>IF('K1'!A45="", "",'K1'!A45)</f>
         <v/>
@@ -54488,7 +54550,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="str">
         <f>IF('K1'!A46="", "",'K1'!A46)</f>
         <v/>
@@ -54512,7 +54574,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="str">
         <f>IF('K1'!A47="", "",'K1'!A47)</f>
         <v/>
@@ -54536,7 +54598,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="str">
         <f>IF('K1'!A48="", "",'K1'!A48)</f>
         <v/>
@@ -54560,7 +54622,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="str">
         <f>IF('K1'!A49="", "",'K1'!A49)</f>
         <v/>
@@ -54584,7 +54646,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="str">
         <f>IF('K1'!A50="", "",'K1'!A50)</f>
         <v/>
@@ -54608,7 +54670,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="str">
         <f>IF('K1'!A51="", "",'K1'!A51)</f>
         <v/>
@@ -54632,7 +54694,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="str">
         <f>IF('K1'!A52="", "",'K1'!A52)</f>
         <v/>
@@ -54656,7 +54718,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="str">
         <f>IF('K1'!A53="", "",'K1'!A53)</f>
         <v/>
@@ -54680,7 +54742,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="str">
         <f>IF('K1'!A54="", "",'K1'!A54)</f>
         <v/>
@@ -54704,7 +54766,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="str">
         <f>IF('K1'!A55="", "",'K1'!A55)</f>
         <v/>
@@ -54728,7 +54790,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="str">
         <f>IF('K1'!A56="", "",'K1'!A56)</f>
         <v/>
@@ -54752,7 +54814,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="str">
         <f>IF('K1'!A57="", "",'K1'!A57)</f>
         <v/>
@@ -54776,7 +54838,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="str">
         <f>IF('K1'!A58="", "",'K1'!A58)</f>
         <v/>
@@ -54800,7 +54862,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="str">
         <f>IF('K1'!A59="", "",'K1'!A59)</f>
         <v/>
@@ -54824,7 +54886,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="str">
         <f>IF('K1'!A60="", "",'K1'!A60)</f>
         <v/>
@@ -54848,7 +54910,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="str">
         <f>IF('K1'!A61="", "",'K1'!A61)</f>
         <v/>
@@ -54872,7 +54934,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="12"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="str">
         <f>IF('K1'!A62="", "",'K1'!A62)</f>
         <v/>
@@ -54896,7 +54958,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="str">
         <f>IF('K1'!A63="", "",'K1'!A63)</f>
         <v/>
@@ -54920,7 +54982,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="12"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="str">
         <f>IF('K1'!A64="", "",'K1'!A64)</f>
         <v/>
@@ -54944,7 +55006,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="12"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="str">
         <f>IF('K1'!A65="", "",'K1'!A65)</f>
         <v/>
@@ -54968,7 +55030,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="12"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="str">
         <f>IF('K1'!A66="", "",'K1'!A66)</f>
         <v/>
@@ -54992,7 +55054,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="12"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="str">
         <f>IF('K1'!A67="", "",'K1'!A67)</f>
         <v/>
@@ -55016,7 +55078,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="12"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="str">
         <f>IF('K1'!A68="", "",'K1'!A68)</f>
         <v/>
@@ -55040,7 +55102,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="12"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="str">
         <f>IF('K1'!A69="", "",'K1'!A69)</f>
         <v/>
@@ -55064,7 +55126,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="str">
         <f>IF('K1'!A70="", "",'K1'!A70)</f>
         <v/>
@@ -55088,7 +55150,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="str">
         <f>IF('K1'!A71="", "",'K1'!A71)</f>
         <v/>
@@ -55112,7 +55174,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="str">
         <f>IF('K1'!A72="", "",'K1'!A72)</f>
         <v/>
@@ -55136,7 +55198,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="str">
         <f>IF('K1'!A73="", "",'K1'!A73)</f>
         <v/>
@@ -55160,7 +55222,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="12"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="str">
         <f>IF('K1'!A74="", "",'K1'!A74)</f>
         <v/>
@@ -55184,7 +55246,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="12"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="str">
         <f>IF('K1'!A75="", "",'K1'!A75)</f>
         <v/>
@@ -55208,7 +55270,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="12"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="str">
         <f>IF('K1'!A76="", "",'K1'!A76)</f>
         <v/>
@@ -55232,7 +55294,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="str">
         <f>IF('K1'!A77="", "",'K1'!A77)</f>
         <v/>
@@ -55256,7 +55318,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="str">
         <f>IF('K1'!A78="", "",'K1'!A78)</f>
         <v/>
@@ -55280,7 +55342,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="str">
         <f>IF('K1'!A79="", "",'K1'!A79)</f>
         <v/>
@@ -55304,7 +55366,7 @@
       <c r="L79" s="10"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="str">
         <f>IF('K1'!A80="", "",'K1'!A80)</f>
         <v/>
@@ -55328,7 +55390,7 @@
       <c r="L80" s="10"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="str">
         <f>IF('K1'!A81="", "",'K1'!A81)</f>
         <v/>
@@ -55352,7 +55414,7 @@
       <c r="L81" s="10"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="str">
         <f>IF('K1'!A82="", "",'K1'!A82)</f>
         <v/>
@@ -55376,7 +55438,7 @@
       <c r="L82" s="10"/>
       <c r="M82" s="12"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="str">
         <f>IF('K1'!A83="", "",'K1'!A83)</f>
         <v/>
@@ -55400,7 +55462,7 @@
       <c r="L83" s="10"/>
       <c r="M83" s="12"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="str">
         <f>IF('K1'!A84="", "",'K1'!A84)</f>
         <v/>
@@ -55424,7 +55486,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="12"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="str">
         <f>IF('K1'!A85="", "",'K1'!A85)</f>
         <v/>
@@ -55448,7 +55510,7 @@
       <c r="L85" s="10"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="str">
         <f>IF('K1'!A86="", "",'K1'!A86)</f>
         <v/>
@@ -55472,7 +55534,7 @@
       <c r="L86" s="10"/>
       <c r="M86" s="12"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="str">
         <f>IF('K1'!A87="", "",'K1'!A87)</f>
         <v/>
@@ -55496,7 +55558,7 @@
       <c r="L87" s="10"/>
       <c r="M87" s="12"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="str">
         <f>IF('K1'!A88="", "",'K1'!A88)</f>
         <v/>
@@ -55520,7 +55582,7 @@
       <c r="L88" s="10"/>
       <c r="M88" s="12"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="str">
         <f>IF('K1'!A89="", "",'K1'!A89)</f>
         <v/>
@@ -55544,7 +55606,7 @@
       <c r="L89" s="10"/>
       <c r="M89" s="12"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="str">
         <f>IF('K1'!A90="", "",'K1'!A90)</f>
         <v/>
@@ -55568,7 +55630,7 @@
       <c r="L90" s="10"/>
       <c r="M90" s="12"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="str">
         <f>IF('K1'!A91="", "",'K1'!A91)</f>
         <v/>
@@ -55592,7 +55654,7 @@
       <c r="L91" s="10"/>
       <c r="M91" s="12"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="str">
         <f>IF('K1'!A92="", "",'K1'!A92)</f>
         <v/>
@@ -55616,7 +55678,7 @@
       <c r="L92" s="10"/>
       <c r="M92" s="12"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="str">
         <f>IF('K1'!A93="", "",'K1'!A93)</f>
         <v/>
@@ -55640,7 +55702,7 @@
       <c r="L93" s="10"/>
       <c r="M93" s="12"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="str">
         <f>IF('K1'!A94="", "",'K1'!A94)</f>
         <v/>
@@ -55664,7 +55726,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="12"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="str">
         <f>IF('K1'!A95="", "",'K1'!A95)</f>
         <v/>
@@ -55688,7 +55750,7 @@
       <c r="L95" s="10"/>
       <c r="M95" s="12"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="str">
         <f>IF('K1'!A96="", "",'K1'!A96)</f>
         <v/>
@@ -55712,7 +55774,7 @@
       <c r="L96" s="10"/>
       <c r="M96" s="12"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="str">
         <f>IF('K1'!A97="", "",'K1'!A97)</f>
         <v/>
@@ -55736,7 +55798,7 @@
       <c r="L97" s="10"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="str">
         <f>IF('K1'!A98="", "",'K1'!A98)</f>
         <v/>
@@ -55760,7 +55822,7 @@
       <c r="L98" s="10"/>
       <c r="M98" s="12"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="str">
         <f>IF('K1'!A99="", "",'K1'!A99)</f>
         <v/>
@@ -55784,7 +55846,7 @@
       <c r="L99" s="10"/>
       <c r="M99" s="12"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="str">
         <f>IF('K1'!A100="", "",'K1'!A100)</f>
         <v/>
@@ -55808,7 +55870,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="12"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="str">
         <f>IF('K1'!A101="", "",'K1'!A101)</f>
         <v/>
@@ -55832,7 +55894,7 @@
       <c r="L101" s="10"/>
       <c r="M101" s="12"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="str">
         <f>IF('K1'!A102="", "",'K1'!A102)</f>
         <v/>
@@ -55847,7 +55909,7 @@
       </c>
       <c r="M102" s="12"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="str">
         <f>IF('K1'!A103="", "",'K1'!A103)</f>
         <v/>
@@ -55862,10 +55924,25 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:C103"/>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:C103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:C12">
+      <sortCondition ref="C3:C103"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -60795,7 +60872,7 @@
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60866,11 +60943,11 @@
       </c>
       <c r="B4" s="36">
         <f>IF('K2'!A4="", "",'K2'!H4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="str">
+        <v>7.0555555555555552E-2</v>
+      </c>
+      <c r="C4" s="37">
         <f>IF('K2'!A4="", "",'K2'!I4)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="25"/>
@@ -60890,11 +60967,11 @@
       </c>
       <c r="B5" s="36">
         <f>IF('K2'!A5="", "",'K2'!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="37" t="str">
+        <v>7.615740740740741E-2</v>
+      </c>
+      <c r="C5" s="37">
         <f>IF('K2'!A5="", "",'K2'!I5)</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="25"/>
@@ -63243,7 +63320,8 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <autoFilter ref="A3:C103"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>